--- a/data/Datasets/Type_shares/Observed_type_shares_non_zeros_generalized.xlsx
+++ b/data/Datasets/Type_shares/Observed_type_shares_non_zeros_generalized.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA185"/>
+  <dimension ref="A1:AE185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,15 +556,35 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
+          <t>N_A_1_raw</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>N_A_2_raw</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>N_B_1_raw</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>N_B_2_raw</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
           <t>total_individuals</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>term</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>major</t>
         </is>
@@ -632,24 +652,36 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6090909090909091</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3545454545454546</v>
+        <v>0.35</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.03636363636363636</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="Y2" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="n">
         <v>60</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AD2" t="n">
         <v>201610</v>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>Administración</t>
         </is>
@@ -717,24 +749,36 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2093023255813954</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2790697674418605</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="W3" t="n">
-        <v>0.4418604651162791</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="X3" t="n">
-        <v>0.06976744186046512</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="Y3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC3" t="n">
         <v>23</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AD3" t="n">
         <v>201610</v>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>Antropología</t>
         </is>
@@ -802,24 +846,36 @@
         <v>0.4</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5775862068965517</v>
+        <v>0.5625</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3017241379310345</v>
+        <v>0.328125</v>
       </c>
       <c r="W4" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.03125</v>
       </c>
       <c r="X4" t="n">
-        <v>0.08620689655172414</v>
+        <v>0.078125</v>
       </c>
       <c r="Y4" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC4" t="n">
         <v>64</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AD4" t="n">
         <v>201610</v>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>Arquitectura</t>
         </is>
@@ -887,24 +943,36 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC5" t="n">
         <v>23</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AD5" t="n">
         <v>201610</v>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>Artes</t>
         </is>
@@ -972,24 +1040,36 @@
         <v>0.25</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3230769230769231</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="W6" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="Y6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC6" t="n">
         <v>35</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AD6" t="n">
         <v>201610</v>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>Biología</t>
         </is>
@@ -1057,24 +1137,36 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2019230769230769</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1442307692307692</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="Y7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC7" t="n">
         <v>56</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AD7" t="n">
         <v>201610</v>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>Cpol</t>
         </is>
@@ -1142,24 +1234,36 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3716216216216216</v>
+        <v>0.3625</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3851351351351351</v>
+        <v>0.3875</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.1875</v>
       </c>
       <c r="X8" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.0625</v>
       </c>
       <c r="Y8" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC8" t="n">
         <v>80</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AD8" t="n">
         <v>201610</v>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>Derecho</t>
         </is>
@@ -1227,24 +1331,36 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.3543307086614173</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5039370078740157</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="W9" t="n">
-        <v>0.07874015748031496</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="X9" t="n">
-        <v>0.06299212598425197</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="Y9" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC9" t="n">
         <v>69</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AD9" t="n">
         <v>201610</v>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>Diseño</t>
         </is>
@@ -1252,16 +1368,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="C10" t="n">
         <v>0.1590909090909091</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1590909090909091</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1282,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1312,24 +1428,36 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5503355704697986</v>
+        <v>0.5432098765432098</v>
       </c>
       <c r="V10" t="n">
-        <v>0.2751677852348993</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1073825503355705</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="X10" t="n">
-        <v>0.06711409395973154</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="Y10" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC10" t="n">
         <v>81</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AD10" t="n">
         <v>201610</v>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>Economía</t>
         </is>
@@ -1397,24 +1525,36 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="V11" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="W11" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
         <v>8</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AD11" t="n">
         <v>201610</v>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>Filosofía</t>
         </is>
@@ -1482,24 +1622,36 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V12" t="n">
-        <v>0.25</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2115384615384615</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="X12" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Y12" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC12" t="n">
         <v>30</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AD12" t="n">
         <v>201610</v>
       </c>
-      <c r="AA12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>Física</t>
         </is>
@@ -1567,24 +1719,36 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.5918367346938775</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="V13" t="n">
-        <v>0.2040816326530612</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1836734693877551</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="X13" t="n">
-        <v>0.02040816326530612</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="Y13" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="n">
         <v>27</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AD13" t="n">
         <v>201610</v>
       </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>Geociencias</t>
         </is>
@@ -1652,24 +1816,36 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="V14" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="W14" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.25</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
         <v>36</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AD14" t="n">
         <v>201610</v>
       </c>
-      <c r="AA14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>GobPolítica</t>
         </is>
@@ -1737,24 +1913,36 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Y15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC15" t="n">
         <v>3</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AD15" t="n">
         <v>201610</v>
       </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>HistArte</t>
         </is>
@@ -1834,12 +2022,24 @@
         <v>0.25</v>
       </c>
       <c r="Y16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC16" t="n">
         <v>4</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AD16" t="n">
         <v>201610</v>
       </c>
-      <c r="AA16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>Historia</t>
         </is>
@@ -1907,24 +2107,36 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="U17" t="n">
-        <v>0.319672131147541</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V17" t="n">
-        <v>0.319672131147541</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="W17" t="n">
-        <v>0.2131147540983606</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="X17" t="n">
-        <v>0.1475409836065574</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="Y17" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC17" t="n">
         <v>66</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AD17" t="n">
         <v>201610</v>
       </c>
-      <c r="AA17" t="inlineStr">
+      <c r="AE17" t="inlineStr">
         <is>
           <t>IngAmbiental</t>
         </is>
@@ -1992,24 +2204,36 @@
         <v>0.1428571428571429</v>
       </c>
       <c r="U18" t="n">
-        <v>0.3858267716535433</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3070866141732284</v>
+        <v>0.2898550724637681</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1102362204724409</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="X18" t="n">
-        <v>0.1968503937007874</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="Y18" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC18" t="n">
         <v>69</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AD18" t="n">
         <v>201610</v>
       </c>
-      <c r="AA18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>IngBiomédica</t>
         </is>
@@ -2077,24 +2301,36 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="U19" t="n">
-        <v>0.3265306122448979</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="V19" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2312925170068027</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="X19" t="n">
-        <v>0.1564625850340136</v>
+        <v>0.1728395061728395</v>
       </c>
       <c r="Y19" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC19" t="n">
         <v>81</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AD19" t="n">
         <v>201610</v>
       </c>
-      <c r="AA19" t="inlineStr">
+      <c r="AE19" t="inlineStr">
         <is>
           <t>IngCivil</t>
         </is>
@@ -2162,24 +2398,36 @@
         <v>0.1666666666666666</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="V20" t="n">
-        <v>0.3923076923076923</v>
+        <v>0.4</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2769230769230769</v>
+        <v>0.2714285714285714</v>
       </c>
       <c r="X20" t="n">
-        <v>0.1769230769230769</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="Y20" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC20" t="n">
         <v>70</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AD20" t="n">
         <v>201610</v>
       </c>
-      <c r="AA20" t="inlineStr">
+      <c r="AE20" t="inlineStr">
         <is>
           <t>IngElectrónica</t>
         </is>
@@ -2247,24 +2495,36 @@
         <v>0.4</v>
       </c>
       <c r="U21" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="W21" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="X21" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="Y21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC21" t="n">
         <v>22</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AD21" t="n">
         <v>201610</v>
       </c>
-      <c r="AA21" t="inlineStr">
+      <c r="AE21" t="inlineStr">
         <is>
           <t>IngEléctrica</t>
         </is>
@@ -2272,10 +2532,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.1594202898550725</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.4057971014492753</v>
       </c>
       <c r="C22" t="n">
         <v>0.1884057971014493</v>
@@ -2284,22 +2544,22 @@
         <v>0.1884057971014493</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02898550724637682</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1136363636363636</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="G22" t="n">
         <v>0.2954545454545454</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="I22" t="n">
         <v>0.0909090909090909</v>
       </c>
       <c r="J22" t="n">
-        <v>0.04545454545454545</v>
+        <v>0.02272727272727272</v>
       </c>
       <c r="K22" t="n">
         <v>0.04166666666666668</v>
@@ -2320,10 +2580,10 @@
         <v>0.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="R22" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2332,24 +2592,36 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0.4774436090225564</v>
+        <v>0.4859154929577465</v>
       </c>
       <c r="V22" t="n">
-        <v>0.3120300751879699</v>
+        <v>0.3098591549295774</v>
       </c>
       <c r="W22" t="n">
-        <v>0.1766917293233083</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="X22" t="n">
-        <v>0.03383458646616541</v>
+        <v>0.0352112676056338</v>
       </c>
       <c r="Y22" t="n">
+        <v>69</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC22" t="n">
         <v>142</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AD22" t="n">
         <v>201610</v>
       </c>
-      <c r="AA22" t="inlineStr">
+      <c r="AE22" t="inlineStr">
         <is>
           <t>IngIndustrial</t>
         </is>
@@ -2417,24 +2689,36 @@
         <v>0.5714285714285715</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4534883720930232</v>
+        <v>0.4456521739130435</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2325581395348837</v>
+        <v>0.25</v>
       </c>
       <c r="W23" t="n">
-        <v>0.1569767441860465</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="X23" t="n">
-        <v>0.1569767441860465</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="Y23" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC23" t="n">
         <v>92</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AD23" t="n">
         <v>201610</v>
       </c>
-      <c r="AA23" t="inlineStr">
+      <c r="AE23" t="inlineStr">
         <is>
           <t>IngMecánica</t>
         </is>
@@ -2442,22 +2726,22 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.08333333333333336</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6250000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="C24" t="n">
         <v>0.1041666666666667</v>
       </c>
       <c r="D24" t="n">
-        <v>0.08333333333333336</v>
+        <v>0.08333333333333334</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.08333333333333334</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G24" t="n">
         <v>0.4545454545454545</v>
@@ -2466,60 +2750,72 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="J24" t="n">
         <v>0.09090909090909091</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1052631578947369</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L24" t="n">
         <v>0.2105263157894737</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="N24" t="n">
         <v>0.3157894736842105</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="P24" t="n">
         <v>0.1666666666666667</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="R24" t="n">
         <v>0.08333333333333334</v>
       </c>
       <c r="S24" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0.5348837209302325</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V24" t="n">
-        <v>0.1279069767441861</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="W24" t="n">
-        <v>0.2093023255813954</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="X24" t="n">
-        <v>0.1279069767441861</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="Y24" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC24" t="n">
         <v>90</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AD24" t="n">
         <v>201610</v>
       </c>
-      <c r="AA24" t="inlineStr">
+      <c r="AE24" t="inlineStr">
         <is>
           <t>IngQuímica</t>
         </is>
@@ -2542,13 +2838,13 @@
         <v>0.08333333333333334</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1794871794871795</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="G25" t="n">
         <v>0.05128205128205129</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5641025641025642</v>
+        <v>0.5128205128205129</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2587,24 +2883,36 @@
         <v>0.1052631578947369</v>
       </c>
       <c r="U25" t="n">
-        <v>0.2346938775510204</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="V25" t="n">
-        <v>0.3622448979591837</v>
+        <v>0.3679245283018868</v>
       </c>
       <c r="W25" t="n">
-        <v>0.2295918367346939</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="X25" t="n">
-        <v>0.173469387755102</v>
+        <v>0.1792452830188679</v>
       </c>
       <c r="Y25" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC25" t="n">
         <v>106</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AD25" t="n">
         <v>201610</v>
       </c>
-      <c r="AA25" t="inlineStr">
+      <c r="AE25" t="inlineStr">
         <is>
           <t>IngSistemas</t>
         </is>
@@ -2672,24 +2980,36 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0.35</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="V26" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="W26" t="n">
-        <v>0.05</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="X26" t="n">
-        <v>0.15</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="Y26" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC26" t="n">
         <v>22</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AD26" t="n">
         <v>201610</v>
       </c>
-      <c r="AA26" t="inlineStr">
+      <c r="AE26" t="inlineStr">
         <is>
           <t>Literatura</t>
         </is>
@@ -2757,24 +3077,36 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.6</v>
       </c>
       <c r="V27" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1</v>
       </c>
       <c r="Y27" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC27" t="n">
         <v>10</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AD27" t="n">
         <v>201610</v>
       </c>
-      <c r="AA27" t="inlineStr">
+      <c r="AE27" t="inlineStr">
         <is>
           <t>Matemáticas</t>
         </is>
@@ -2842,24 +3174,36 @@
         <v>0.2</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1467889908256881</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4770642201834863</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="W28" t="n">
-        <v>0.04587155963302753</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="X28" t="n">
-        <v>0.3302752293577982</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="Y28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC28" t="n">
         <v>59</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AD28" t="n">
         <v>201610</v>
       </c>
-      <c r="AA28" t="inlineStr">
+      <c r="AE28" t="inlineStr">
         <is>
           <t>Medicina</t>
         </is>
@@ -2930,21 +3274,33 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="W29" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="X29" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC29" t="n">
         <v>19</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AD29" t="n">
         <v>201610</v>
       </c>
-      <c r="AA29" t="inlineStr">
+      <c r="AE29" t="inlineStr">
         <is>
           <t>Microbiología</t>
         </is>
@@ -3012,24 +3368,36 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0.3090909090909091</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="V30" t="n">
-        <v>0.3090909090909091</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="W30" t="n">
-        <v>0.2</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="X30" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="Y30" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC30" t="n">
         <v>29</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AD30" t="n">
         <v>201610</v>
       </c>
-      <c r="AA30" t="inlineStr">
+      <c r="AE30" t="inlineStr">
         <is>
           <t>Música</t>
         </is>
@@ -3097,24 +3465,36 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="U31" t="n">
-        <v>0.4021739130434783</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="V31" t="n">
-        <v>0.2717391304347826</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="W31" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="X31" t="n">
-        <v>0.108695652173913</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="Y31" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC31" t="n">
         <v>54</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AD31" t="n">
         <v>201610</v>
       </c>
-      <c r="AA31" t="inlineStr">
+      <c r="AE31" t="inlineStr">
         <is>
           <t>Psicología</t>
         </is>
@@ -3182,24 +3562,36 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="U32" t="n">
-        <v>0.423728813559322</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="V32" t="n">
-        <v>0.1355932203389831</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="W32" t="n">
-        <v>0.2542372881355932</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="X32" t="n">
-        <v>0.1864406779661017</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="Y32" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC32" t="n">
         <v>31</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AD32" t="n">
         <v>201610</v>
       </c>
-      <c r="AA32" t="inlineStr">
+      <c r="AE32" t="inlineStr">
         <is>
           <t>Química</t>
         </is>
@@ -3267,10 +3659,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0.3458646616541353</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6541353383458647</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3279,12 +3671,24 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
         <v>69</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="AD33" t="n">
         <v>201620</v>
       </c>
-      <c r="AA33" t="inlineStr">
+      <c r="AE33" t="inlineStr">
         <is>
           <t>Administración</t>
         </is>
@@ -3352,10 +3756,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V34" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3364,12 +3768,24 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
         <v>9</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="AD34" t="n">
         <v>201620</v>
       </c>
-      <c r="AA34" t="inlineStr">
+      <c r="AE34" t="inlineStr">
         <is>
           <t>Antropología</t>
         </is>
@@ -3377,13 +3793,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3392,13 +3808,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.05263157894736843</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="H35" t="n">
-        <v>0.631578947368421</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="I35" t="n">
         <v>0.02631578947368421</v>
@@ -3437,24 +3853,36 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.368</v>
+        <v>0.3880597014925373</v>
       </c>
       <c r="V35" t="n">
-        <v>0.584</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="W35" t="n">
-        <v>0.016</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="X35" t="n">
-        <v>0.032</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="Y35" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC35" t="n">
         <v>67</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AD35" t="n">
         <v>201620</v>
       </c>
-      <c r="AA35" t="inlineStr">
+      <c r="AE35" t="inlineStr">
         <is>
           <t>Arquitectura</t>
         </is>
@@ -3522,24 +3950,36 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.26</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="V36" t="n">
-        <v>0.62</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.12</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="Y36" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC36" t="n">
         <v>28</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="AD36" t="n">
         <v>201620</v>
       </c>
-      <c r="AA36" t="inlineStr">
+      <c r="AE36" t="inlineStr">
         <is>
           <t>Artes</t>
         </is>
@@ -3607,24 +4047,36 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.2291666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="V37" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="W37" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="X37" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="Y37" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC37" t="n">
         <v>28</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AD37" t="n">
         <v>201620</v>
       </c>
-      <c r="AA37" t="inlineStr">
+      <c r="AE37" t="inlineStr">
         <is>
           <t>Biología</t>
         </is>
@@ -3692,24 +4144,36 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.8640776699029126</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="V38" t="n">
-        <v>0.07766990291262135</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="W38" t="n">
-        <v>0.05825242718446602</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
         <v>57</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="AD38" t="n">
         <v>201620</v>
       </c>
-      <c r="AA38" t="inlineStr">
+      <c r="AE38" t="inlineStr">
         <is>
           <t>Cpol</t>
         </is>
@@ -3777,24 +4241,36 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0.6645161290322581</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="V39" t="n">
-        <v>0.3225806451612903</v>
+        <v>0.3176470588235294</v>
       </c>
       <c r="W39" t="n">
-        <v>0.006451612903225806</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="X39" t="n">
-        <v>0.006451612903225806</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="Y39" t="n">
+        <v>56</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC39" t="n">
         <v>85</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AD39" t="n">
         <v>201620</v>
       </c>
-      <c r="AA39" t="inlineStr">
+      <c r="AE39" t="inlineStr">
         <is>
           <t>Derecho</t>
         </is>
@@ -3862,10 +4338,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.5078125</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4921875</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3874,12 +4350,24 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
         <v>72</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="AD40" t="n">
         <v>201620</v>
       </c>
-      <c r="AA40" t="inlineStr">
+      <c r="AE40" t="inlineStr">
         <is>
           <t>Diseño</t>
         </is>
@@ -3947,24 +4435,36 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.5082872928176796</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4696132596685083</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.02209944751381215</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="Y41" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC41" t="n">
         <v>95</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AD41" t="n">
         <v>201620</v>
       </c>
-      <c r="AA41" t="inlineStr">
+      <c r="AE41" t="inlineStr">
         <is>
           <t>Economía</t>
         </is>
@@ -4044,12 +4544,24 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
         <v>8</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="AD42" t="n">
         <v>201620</v>
       </c>
-      <c r="AA42" t="inlineStr">
+      <c r="AE42" t="inlineStr">
         <is>
           <t>Filosofía</t>
         </is>
@@ -4117,24 +4629,36 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="W43" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="X43" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="Y43" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC43" t="n">
         <v>14</v>
       </c>
-      <c r="Z43" t="n">
+      <c r="AD43" t="n">
         <v>201620</v>
       </c>
-      <c r="AA43" t="inlineStr">
+      <c r="AE43" t="inlineStr">
         <is>
           <t>Física</t>
         </is>
@@ -4202,10 +4726,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4214,12 +4738,24 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
         <v>7</v>
       </c>
-      <c r="Z44" t="n">
+      <c r="AD44" t="n">
         <v>201620</v>
       </c>
-      <c r="AA44" t="inlineStr">
+      <c r="AE44" t="inlineStr">
         <is>
           <t>Geociencias</t>
         </is>
@@ -4233,19 +4769,19 @@
         <v>0.48</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="D45" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="H45" t="n">
         <v>0.6363636363636365</v>
@@ -4257,10 +4793,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -4287,24 +4823,36 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.4891304347826087</v>
+        <v>0.5</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4456521739130435</v>
+        <v>0.44</v>
       </c>
       <c r="W45" t="n">
-        <v>0.06521739130434782</v>
+        <v>0.06</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
         <v>50</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="AD45" t="n">
         <v>201620</v>
       </c>
-      <c r="AA45" t="inlineStr">
+      <c r="AE45" t="inlineStr">
         <is>
           <t>GobPolítica</t>
         </is>
@@ -4372,24 +4920,36 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.8</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="V46" t="n">
-        <v>0.04</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="W46" t="n">
-        <v>0.16</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
         <v>13</v>
       </c>
-      <c r="Z46" t="n">
+      <c r="AD46" t="n">
         <v>201620</v>
       </c>
-      <c r="AA46" t="inlineStr">
+      <c r="AE46" t="inlineStr">
         <is>
           <t>HistArte</t>
         </is>
@@ -4457,24 +5017,36 @@
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>0.9038461538461539</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="V47" t="n">
-        <v>0.0576923076923077</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="W47" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
       </c>
       <c r="Y47" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
         <v>28</v>
       </c>
-      <c r="Z47" t="n">
+      <c r="AD47" t="n">
         <v>201620</v>
       </c>
-      <c r="AA47" t="inlineStr">
+      <c r="AE47" t="inlineStr">
         <is>
           <t>IngAmbiental</t>
         </is>
@@ -4542,24 +5114,36 @@
         <v>0.5</v>
       </c>
       <c r="U48" t="n">
-        <v>0.4421052631578947</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="V48" t="n">
-        <v>0.4526315789473684</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="W48" t="n">
-        <v>0.02105263157894737</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="X48" t="n">
-        <v>0.08421052631578947</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="Y48" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC48" t="n">
         <v>51</v>
       </c>
-      <c r="Z48" t="n">
+      <c r="AD48" t="n">
         <v>201620</v>
       </c>
-      <c r="AA48" t="inlineStr">
+      <c r="AE48" t="inlineStr">
         <is>
           <t>IngBiomédica</t>
         </is>
@@ -4627,24 +5211,36 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>0.5983606557377049</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="V49" t="n">
-        <v>0.3770491803278688</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="W49" t="n">
-        <v>0.00819672131147541</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="X49" t="n">
-        <v>0.01639344262295082</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="Y49" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC49" t="n">
         <v>66</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="AD49" t="n">
         <v>201620</v>
       </c>
-      <c r="AA49" t="inlineStr">
+      <c r="AE49" t="inlineStr">
         <is>
           <t>IngCivil</t>
         </is>
@@ -4712,24 +5308,36 @@
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="V50" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="Y50" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC50" t="n">
         <v>26</v>
       </c>
-      <c r="Z50" t="n">
+      <c r="AD50" t="n">
         <v>201620</v>
       </c>
-      <c r="AA50" t="inlineStr">
+      <c r="AE50" t="inlineStr">
         <is>
           <t>IngElectrónica</t>
         </is>
@@ -4797,24 +5405,36 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="V51" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="Y51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC51" t="n">
         <v>9</v>
       </c>
-      <c r="Z51" t="n">
+      <c r="AD51" t="n">
         <v>201620</v>
       </c>
-      <c r="AA51" t="inlineStr">
+      <c r="AE51" t="inlineStr">
         <is>
           <t>IngEléctrica</t>
         </is>
@@ -4882,24 +5502,36 @@
         <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>0.5659574468085107</v>
+        <v>0.5691056910569106</v>
       </c>
       <c r="V52" t="n">
-        <v>0.425531914893617</v>
+        <v>0.4227642276422764</v>
       </c>
       <c r="W52" t="n">
-        <v>0.008510638297872341</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="X52" t="n">
         <v>0</v>
       </c>
       <c r="Y52" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>52</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
         <v>123</v>
       </c>
-      <c r="Z52" t="n">
+      <c r="AD52" t="n">
         <v>201620</v>
       </c>
-      <c r="AA52" t="inlineStr">
+      <c r="AE52" t="inlineStr">
         <is>
           <t>IngIndustrial</t>
         </is>
@@ -4910,37 +5542,37 @@
         <v>0.1212121212121212</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6060606060606062</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2727272727272728</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="H53" t="n">
-        <v>0.6470588235294117</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02941176470588236</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -4967,24 +5599,36 @@
         <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>0.4732824427480916</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="V53" t="n">
-        <v>0.5038167938931297</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="W53" t="n">
-        <v>0.007633587786259542</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="X53" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="Y53" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC53" t="n">
         <v>69</v>
       </c>
-      <c r="Z53" t="n">
+      <c r="AD53" t="n">
         <v>201620</v>
       </c>
-      <c r="AA53" t="inlineStr">
+      <c r="AE53" t="inlineStr">
         <is>
           <t>IngMecánica</t>
         </is>
@@ -5052,10 +5696,10 @@
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>0.7073170731707317</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="V54" t="n">
-        <v>0.2926829268292683</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="W54" t="n">
         <v>0</v>
@@ -5064,12 +5708,24 @@
         <v>0</v>
       </c>
       <c r="Y54" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
         <v>65</v>
       </c>
-      <c r="Z54" t="n">
+      <c r="AD54" t="n">
         <v>201620</v>
       </c>
-      <c r="AA54" t="inlineStr">
+      <c r="AE54" t="inlineStr">
         <is>
           <t>IngQuímica</t>
         </is>
@@ -5137,24 +5793,36 @@
         <v>0.5</v>
       </c>
       <c r="U55" t="n">
-        <v>0.4811320754716981</v>
+        <v>0.5</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4245283018867925</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="W55" t="n">
-        <v>0.01886792452830189</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="X55" t="n">
-        <v>0.07547169811320754</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="Y55" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC55" t="n">
         <v>58</v>
       </c>
-      <c r="Z55" t="n">
+      <c r="AD55" t="n">
         <v>201620</v>
       </c>
-      <c r="AA55" t="inlineStr">
+      <c r="AE55" t="inlineStr">
         <is>
           <t>IngSistemas</t>
         </is>
@@ -5222,24 +5890,36 @@
         <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="V56" t="n">
-        <v>0.08</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="W56" t="n">
-        <v>0.04</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="X56" t="n">
         <v>0</v>
       </c>
       <c r="Y56" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
         <v>15</v>
       </c>
-      <c r="Z56" t="n">
+      <c r="AD56" t="n">
         <v>201620</v>
       </c>
-      <c r="AA56" t="inlineStr">
+      <c r="AE56" t="inlineStr">
         <is>
           <t>Literatura</t>
         </is>
@@ -5319,12 +5999,24 @@
         <v>0</v>
       </c>
       <c r="Y57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
         <v>6</v>
       </c>
-      <c r="Z57" t="n">
+      <c r="AD57" t="n">
         <v>201620</v>
       </c>
-      <c r="AA57" t="inlineStr">
+      <c r="AE57" t="inlineStr">
         <is>
           <t>Matemáticas</t>
         </is>
@@ -5392,24 +6084,36 @@
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="V58" t="n">
-        <v>0.1846153846153846</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="W58" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="X58" t="n">
-        <v>0.02307692307692308</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="Y58" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC58" t="n">
         <v>68</v>
       </c>
-      <c r="Z58" t="n">
+      <c r="AD58" t="n">
         <v>201620</v>
       </c>
-      <c r="AA58" t="inlineStr">
+      <c r="AE58" t="inlineStr">
         <is>
           <t>Medicina</t>
         </is>
@@ -5477,24 +6181,36 @@
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.6875</v>
       </c>
       <c r="V59" t="n">
-        <v>0.1785714285714286</v>
+        <v>0.1875</v>
       </c>
       <c r="W59" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.125</v>
       </c>
       <c r="X59" t="n">
         <v>0</v>
       </c>
       <c r="Y59" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC59" t="n">
         <v>16</v>
       </c>
-      <c r="Z59" t="n">
+      <c r="AD59" t="n">
         <v>201620</v>
       </c>
-      <c r="AA59" t="inlineStr">
+      <c r="AE59" t="inlineStr">
         <is>
           <t>Microbiología</t>
         </is>
@@ -5562,24 +6278,36 @@
         <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V60" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>0.1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="Y60" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC60" t="n">
         <v>18</v>
       </c>
-      <c r="Z60" t="n">
+      <c r="AD60" t="n">
         <v>201620</v>
       </c>
-      <c r="AA60" t="inlineStr">
+      <c r="AE60" t="inlineStr">
         <is>
           <t>Música</t>
         </is>
@@ -5647,24 +6375,36 @@
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>0.4025974025974026</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="V61" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="W61" t="n">
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>0.02597402597402598</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="Y61" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC61" t="n">
         <v>41</v>
       </c>
-      <c r="Z61" t="n">
+      <c r="AD61" t="n">
         <v>201620</v>
       </c>
-      <c r="AA61" t="inlineStr">
+      <c r="AE61" t="inlineStr">
         <is>
           <t>Psicología</t>
         </is>
@@ -5732,10 +6472,10 @@
         <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="V62" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="W62" t="n">
         <v>0</v>
@@ -5744,12 +6484,24 @@
         <v>0</v>
       </c>
       <c r="Y62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC62" t="n">
         <v>5</v>
       </c>
-      <c r="Z62" t="n">
+      <c r="AD62" t="n">
         <v>201620</v>
       </c>
-      <c r="AA62" t="inlineStr">
+      <c r="AE62" t="inlineStr">
         <is>
           <t>Química</t>
         </is>
@@ -5817,24 +6569,36 @@
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>0.4495412844036697</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4954128440366973</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="W63" t="n">
-        <v>0.05504587155963303</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="X63" t="n">
         <v>0</v>
       </c>
       <c r="Y63" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="n">
         <v>59</v>
       </c>
-      <c r="Z63" t="n">
+      <c r="AD63" t="n">
         <v>201710</v>
       </c>
-      <c r="AA63" t="inlineStr">
+      <c r="AE63" t="inlineStr">
         <is>
           <t>Administración</t>
         </is>
@@ -5902,24 +6666,36 @@
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="W64" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="X64" t="n">
         <v>0</v>
       </c>
       <c r="Y64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="n">
         <v>18</v>
       </c>
-      <c r="Z64" t="n">
+      <c r="AD64" t="n">
         <v>201710</v>
       </c>
-      <c r="AA64" t="inlineStr">
+      <c r="AE64" t="inlineStr">
         <is>
           <t>Antropología</t>
         </is>
@@ -5942,13 +6718,13 @@
         <v>0.103448275862069</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="G65" t="n">
         <v>0.2962962962962963</v>
       </c>
       <c r="H65" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5987,24 +6763,36 @@
         <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>0.4135338345864661</v>
+        <v>0.4084507042253521</v>
       </c>
       <c r="V65" t="n">
-        <v>0.3834586466165413</v>
+        <v>0.3802816901408451</v>
       </c>
       <c r="W65" t="n">
-        <v>0.112781954887218</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="X65" t="n">
-        <v>0.09022556390977443</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="Y65" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC65" t="n">
         <v>71</v>
       </c>
-      <c r="Z65" t="n">
+      <c r="AD65" t="n">
         <v>201710</v>
       </c>
-      <c r="AA65" t="inlineStr">
+      <c r="AE65" t="inlineStr">
         <is>
           <t>Arquitectura</t>
         </is>
@@ -6072,24 +6860,36 @@
         <v>0.4615384615384615</v>
       </c>
       <c r="U66" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4769230769230769</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="W66" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="X66" t="n">
-        <v>0.3692307692307693</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="Y66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC66" t="n">
         <v>35</v>
       </c>
-      <c r="Z66" t="n">
+      <c r="AD66" t="n">
         <v>201710</v>
       </c>
-      <c r="AA66" t="inlineStr">
+      <c r="AE66" t="inlineStr">
         <is>
           <t>Artes</t>
         </is>
@@ -6157,24 +6957,36 @@
         <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="V67" t="n">
-        <v>0.0975609756097561</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="W67" t="n">
-        <v>0.2682926829268293</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="X67" t="n">
-        <v>0.0975609756097561</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="Y67" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC67" t="n">
         <v>23</v>
       </c>
-      <c r="Z67" t="n">
+      <c r="AD67" t="n">
         <v>201710</v>
       </c>
-      <c r="AA67" t="inlineStr">
+      <c r="AE67" t="inlineStr">
         <is>
           <t>Biología</t>
         </is>
@@ -6242,24 +7054,36 @@
         <v>0.4444444444444445</v>
       </c>
       <c r="U68" t="n">
-        <v>0.2</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="V68" t="n">
-        <v>0.5066666666666667</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="W68" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="X68" t="n">
-        <v>0.2266666666666667</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="Y68" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC68" t="n">
         <v>43</v>
       </c>
-      <c r="Z68" t="n">
+      <c r="AD68" t="n">
         <v>201710</v>
       </c>
-      <c r="AA68" t="inlineStr">
+      <c r="AE68" t="inlineStr">
         <is>
           <t>Cpol</t>
         </is>
@@ -6267,13 +7091,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="B69" t="n">
         <v>0.4210526315789473</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="D69" t="n">
         <v>0.1052631578947368</v>
@@ -6282,13 +7106,13 @@
         <v>0.1052631578947368</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G69" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.8</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -6327,24 +7151,36 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="U69" t="n">
-        <v>0.2844827586206897</v>
+        <v>0.296875</v>
       </c>
       <c r="V69" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.46875</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1379310344827586</v>
+        <v>0.140625</v>
       </c>
       <c r="X69" t="n">
-        <v>0.09482758620689655</v>
+        <v>0.09375</v>
       </c>
       <c r="Y69" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC69" t="n">
         <v>64</v>
       </c>
-      <c r="Z69" t="n">
+      <c r="AD69" t="n">
         <v>201710</v>
       </c>
-      <c r="AA69" t="inlineStr">
+      <c r="AE69" t="inlineStr">
         <is>
           <t>Derecho</t>
         </is>
@@ -6412,24 +7248,36 @@
         <v>0</v>
       </c>
       <c r="U70" t="n">
-        <v>0.273972602739726</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="V70" t="n">
-        <v>0.547945205479452</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1027397260273973</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="X70" t="n">
-        <v>0.07534246575342465</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="Y70" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC70" t="n">
         <v>78</v>
       </c>
-      <c r="Z70" t="n">
+      <c r="AD70" t="n">
         <v>201710</v>
       </c>
-      <c r="AA70" t="inlineStr">
+      <c r="AE70" t="inlineStr">
         <is>
           <t>Diseño</t>
         </is>
@@ -6497,24 +7345,36 @@
         <v>0</v>
       </c>
       <c r="U71" t="n">
-        <v>0.2553191489361702</v>
+        <v>0.2602739726027397</v>
       </c>
       <c r="V71" t="n">
-        <v>0.6524822695035462</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="W71" t="n">
-        <v>0.06382978723404255</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="X71" t="n">
-        <v>0.02836879432624113</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="Y71" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>47</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC71" t="n">
         <v>73</v>
       </c>
-      <c r="Z71" t="n">
+      <c r="AD71" t="n">
         <v>201710</v>
       </c>
-      <c r="AA71" t="inlineStr">
+      <c r="AE71" t="inlineStr">
         <is>
           <t>Economía</t>
         </is>
@@ -6582,24 +7442,36 @@
         <v>0</v>
       </c>
       <c r="U72" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="W72" t="n">
         <v>0</v>
       </c>
       <c r="X72" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="Y72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC72" t="n">
         <v>7</v>
       </c>
-      <c r="Z72" t="n">
+      <c r="AD72" t="n">
         <v>201710</v>
       </c>
-      <c r="AA72" t="inlineStr">
+      <c r="AE72" t="inlineStr">
         <is>
           <t>Filosofía</t>
         </is>
@@ -6667,24 +7539,36 @@
         <v>0</v>
       </c>
       <c r="U73" t="n">
-        <v>0.4901960784313725</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="V73" t="n">
-        <v>0.2156862745098039</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="W73" t="n">
-        <v>0.2549019607843137</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="X73" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="Y73" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC73" t="n">
         <v>29</v>
       </c>
-      <c r="Z73" t="n">
+      <c r="AD73" t="n">
         <v>201710</v>
       </c>
-      <c r="AA73" t="inlineStr">
+      <c r="AE73" t="inlineStr">
         <is>
           <t>Física</t>
         </is>
@@ -6752,24 +7636,36 @@
         <v>0</v>
       </c>
       <c r="U74" t="n">
-        <v>0.35</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="V74" t="n">
-        <v>0.1</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="W74" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="X74" t="n">
         <v>0</v>
       </c>
       <c r="Y74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC74" t="n">
         <v>12</v>
       </c>
-      <c r="Z74" t="n">
+      <c r="AD74" t="n">
         <v>201710</v>
       </c>
-      <c r="AA74" t="inlineStr">
+      <c r="AE74" t="inlineStr">
         <is>
           <t>Geociencias</t>
         </is>
@@ -6837,24 +7733,36 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="U75" t="n">
-        <v>0.2328767123287671</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4931506849315068</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="W75" t="n">
         <v>0</v>
       </c>
       <c r="X75" t="n">
-        <v>0.273972602739726</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="Y75" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC75" t="n">
         <v>39</v>
       </c>
-      <c r="Z75" t="n">
+      <c r="AD75" t="n">
         <v>201710</v>
       </c>
-      <c r="AA75" t="inlineStr">
+      <c r="AE75" t="inlineStr">
         <is>
           <t>GobPolítica</t>
         </is>
@@ -6922,24 +7830,36 @@
         <v>0</v>
       </c>
       <c r="U76" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.2</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="W76" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="X76" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2</v>
       </c>
       <c r="Y76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC76" t="n">
         <v>15</v>
       </c>
-      <c r="Z76" t="n">
+      <c r="AD76" t="n">
         <v>201710</v>
       </c>
-      <c r="AA76" t="inlineStr">
+      <c r="AE76" t="inlineStr">
         <is>
           <t>HistArte</t>
         </is>
@@ -7007,24 +7927,36 @@
         <v>0</v>
       </c>
       <c r="U77" t="n">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V77" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="X77" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="Y77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC77" t="n">
         <v>9</v>
       </c>
-      <c r="Z77" t="n">
+      <c r="AD77" t="n">
         <v>201710</v>
       </c>
-      <c r="AA77" t="inlineStr">
+      <c r="AE77" t="inlineStr">
         <is>
           <t>Historia</t>
         </is>
@@ -7092,24 +8024,36 @@
         <v>0.375</v>
       </c>
       <c r="U78" t="n">
-        <v>0.1862745098039216</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="V78" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1862745098039216</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="X78" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="Y78" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC78" t="n">
         <v>54</v>
       </c>
-      <c r="Z78" t="n">
+      <c r="AD78" t="n">
         <v>201710</v>
       </c>
-      <c r="AA78" t="inlineStr">
+      <c r="AE78" t="inlineStr">
         <is>
           <t>IngAmbiental</t>
         </is>
@@ -7177,24 +8121,36 @@
         <v>0.2857142857142858</v>
       </c>
       <c r="U79" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2741935483870968</v>
       </c>
       <c r="V79" t="n">
-        <v>0.2280701754385965</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="W79" t="n">
-        <v>0.2719298245614035</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="X79" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="Y79" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC79" t="n">
         <v>62</v>
       </c>
-      <c r="Z79" t="n">
+      <c r="AD79" t="n">
         <v>201710</v>
       </c>
-      <c r="AA79" t="inlineStr">
+      <c r="AE79" t="inlineStr">
         <is>
           <t>IngBiomédica</t>
         </is>
@@ -7262,24 +8218,36 @@
         <v>0.3225806451612903</v>
       </c>
       <c r="U80" t="n">
-        <v>0.02325581395348837</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="V80" t="n">
-        <v>0.5658914728682171</v>
+        <v>0.5352112676056338</v>
       </c>
       <c r="W80" t="n">
         <v>0</v>
       </c>
       <c r="X80" t="n">
-        <v>0.4108527131782946</v>
+        <v>0.4366197183098591</v>
       </c>
       <c r="Y80" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC80" t="n">
         <v>71</v>
       </c>
-      <c r="Z80" t="n">
+      <c r="AD80" t="n">
         <v>201710</v>
       </c>
-      <c r="AA80" t="inlineStr">
+      <c r="AE80" t="inlineStr">
         <is>
           <t>IngCivil</t>
         </is>
@@ -7347,7 +8315,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="U81" t="n">
-        <v>0.3977272727272727</v>
+        <v>0.375</v>
       </c>
       <c r="V81" t="n">
         <v>0.125</v>
@@ -7356,15 +8324,27 @@
         <v>0.25</v>
       </c>
       <c r="X81" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.25</v>
       </c>
       <c r="Y81" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC81" t="n">
         <v>48</v>
       </c>
-      <c r="Z81" t="n">
+      <c r="AD81" t="n">
         <v>201710</v>
       </c>
-      <c r="AA81" t="inlineStr">
+      <c r="AE81" t="inlineStr">
         <is>
           <t>IngElectrónica</t>
         </is>
@@ -7432,24 +8412,36 @@
         <v>0.25</v>
       </c>
       <c r="U82" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="V82" t="n">
-        <v>0.2051282051282051</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="W82" t="n">
-        <v>0.358974358974359</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="X82" t="n">
-        <v>0.282051282051282</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="Y82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC82" t="n">
         <v>23</v>
       </c>
-      <c r="Z82" t="n">
+      <c r="AD82" t="n">
         <v>201710</v>
       </c>
-      <c r="AA82" t="inlineStr">
+      <c r="AE82" t="inlineStr">
         <is>
           <t>IngEléctrica</t>
         </is>
@@ -7517,24 +8509,36 @@
         <v>0</v>
       </c>
       <c r="U83" t="n">
-        <v>0.5054945054945055</v>
+        <v>0.5104166666666666</v>
       </c>
       <c r="V83" t="n">
-        <v>0.2967032967032967</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="W83" t="n">
-        <v>0.09340659340659341</v>
+        <v>0.09375</v>
       </c>
       <c r="X83" t="n">
-        <v>0.1043956043956044</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="Y83" t="n">
+        <v>49</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC83" t="n">
         <v>96</v>
       </c>
-      <c r="Z83" t="n">
+      <c r="AD83" t="n">
         <v>201710</v>
       </c>
-      <c r="AA83" t="inlineStr">
+      <c r="AE83" t="inlineStr">
         <is>
           <t>IngIndustrial</t>
         </is>
@@ -7602,24 +8606,36 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="U84" t="n">
-        <v>0.3724137931034483</v>
+        <v>0.3766233766233766</v>
       </c>
       <c r="V84" t="n">
-        <v>0.3379310344827586</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="W84" t="n">
-        <v>0.1103448275862069</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="X84" t="n">
-        <v>0.1793103448275862</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="Y84" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC84" t="n">
         <v>77</v>
       </c>
-      <c r="Z84" t="n">
+      <c r="AD84" t="n">
         <v>201710</v>
       </c>
-      <c r="AA84" t="inlineStr">
+      <c r="AE84" t="inlineStr">
         <is>
           <t>IngMecánica</t>
         </is>
@@ -7627,10 +8643,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.0810810810810811</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5405405405405406</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C85" t="n">
         <v>0.05405405405405406</v>
@@ -7639,7 +8655,7 @@
         <v>0.2702702702702703</v>
       </c>
       <c r="E85" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="F85" t="n">
         <v>0.05882352941176471</v>
@@ -7657,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0.06451612903225808</v>
+        <v>0.09677419354838711</v>
       </c>
       <c r="L85" t="n">
         <v>0.3225806451612904</v>
@@ -7669,42 +8685,54 @@
         <v>0.4516129032258066</v>
       </c>
       <c r="O85" t="n">
-        <v>0.09677419354838711</v>
+        <v>0.06451612903225808</v>
       </c>
       <c r="P85" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q85" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
         <v>0.4</v>
       </c>
-      <c r="R85" t="n">
-        <v>0</v>
-      </c>
-      <c r="S85" t="n">
-        <v>0.6</v>
-      </c>
       <c r="T85" t="n">
         <v>0</v>
       </c>
       <c r="U85" t="n">
-        <v>0.4080459770114943</v>
+        <v>0.4111111111111111</v>
       </c>
       <c r="V85" t="n">
-        <v>0.1896551724137931</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="W85" t="n">
-        <v>0.3448275862068966</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="X85" t="n">
-        <v>0.05747126436781609</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="Y85" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>31</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC85" t="n">
         <v>90</v>
       </c>
-      <c r="Z85" t="n">
+      <c r="AD85" t="n">
         <v>201710</v>
       </c>
-      <c r="AA85" t="inlineStr">
+      <c r="AE85" t="inlineStr">
         <is>
           <t>IngQuímica</t>
         </is>
@@ -7772,24 +8800,36 @@
         <v>0.2727272727272727</v>
       </c>
       <c r="U86" t="n">
-        <v>0.3782051282051282</v>
+        <v>0.3604651162790697</v>
       </c>
       <c r="V86" t="n">
-        <v>0.2435897435897436</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="W86" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="X86" t="n">
-        <v>0.25</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="Y86" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC86" t="n">
         <v>86</v>
       </c>
-      <c r="Z86" t="n">
+      <c r="AD86" t="n">
         <v>201710</v>
       </c>
-      <c r="AA86" t="inlineStr">
+      <c r="AE86" t="inlineStr">
         <is>
           <t>IngSistemas</t>
         </is>
@@ -7857,24 +8897,36 @@
         <v>0</v>
       </c>
       <c r="U87" t="n">
-        <v>0.4</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="V87" t="n">
-        <v>0.2545454545454545</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="W87" t="n">
-        <v>0.2</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="X87" t="n">
-        <v>0.1454545454545454</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="Y87" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC87" t="n">
         <v>29</v>
       </c>
-      <c r="Z87" t="n">
+      <c r="AD87" t="n">
         <v>201710</v>
       </c>
-      <c r="AA87" t="inlineStr">
+      <c r="AE87" t="inlineStr">
         <is>
           <t>Literatura</t>
         </is>
@@ -7942,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="U88" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="V88" t="n">
         <v>0.5</v>
@@ -7951,15 +9003,27 @@
         <v>0</v>
       </c>
       <c r="X88" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="Y88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC88" t="n">
         <v>12</v>
       </c>
-      <c r="Z88" t="n">
+      <c r="AD88" t="n">
         <v>201710</v>
       </c>
-      <c r="AA88" t="inlineStr">
+      <c r="AE88" t="inlineStr">
         <is>
           <t>Matemáticas</t>
         </is>
@@ -8027,24 +9091,36 @@
         <v>0.4</v>
       </c>
       <c r="U89" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="V89" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="W89" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="X89" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="Y89" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC89" t="n">
         <v>36</v>
       </c>
-      <c r="Z89" t="n">
+      <c r="AD89" t="n">
         <v>201710</v>
       </c>
-      <c r="AA89" t="inlineStr">
+      <c r="AE89" t="inlineStr">
         <is>
           <t>Medicina</t>
         </is>
@@ -8112,24 +9188,36 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="U90" t="n">
-        <v>0.06521739130434782</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="V90" t="n">
-        <v>0.3695652173913043</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="W90" t="n">
-        <v>0.108695652173913</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="X90" t="n">
-        <v>0.4565217391304348</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="Y90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC90" t="n">
         <v>26</v>
       </c>
-      <c r="Z90" t="n">
+      <c r="AD90" t="n">
         <v>201710</v>
       </c>
-      <c r="AA90" t="inlineStr">
+      <c r="AE90" t="inlineStr">
         <is>
           <t>Microbiología</t>
         </is>
@@ -8197,24 +9285,36 @@
         <v>0</v>
       </c>
       <c r="U91" t="n">
-        <v>0.5853658536585366</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="V91" t="n">
-        <v>0.2195121951219512</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="W91" t="n">
-        <v>0.1463414634146341</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="X91" t="n">
-        <v>0.04878048780487805</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="Y91" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC91" t="n">
         <v>21</v>
       </c>
-      <c r="Z91" t="n">
+      <c r="AD91" t="n">
         <v>201710</v>
       </c>
-      <c r="AA91" t="inlineStr">
+      <c r="AE91" t="inlineStr">
         <is>
           <t>Música</t>
         </is>
@@ -8282,24 +9382,36 @@
         <v>0.5</v>
       </c>
       <c r="U92" t="n">
-        <v>0.3218390804597701</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="V92" t="n">
-        <v>0.3563218390804598</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="W92" t="n">
-        <v>0.2298850574712644</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="X92" t="n">
-        <v>0.09195402298850575</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="Y92" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC92" t="n">
         <v>45</v>
       </c>
-      <c r="Z92" t="n">
+      <c r="AD92" t="n">
         <v>201710</v>
       </c>
-      <c r="AA92" t="inlineStr">
+      <c r="AE92" t="inlineStr">
         <is>
           <t>Psicología</t>
         </is>
@@ -8367,24 +9479,36 @@
         <v>0.4</v>
       </c>
       <c r="U93" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3</v>
       </c>
       <c r="V93" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.3</v>
       </c>
       <c r="W93" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.15</v>
       </c>
       <c r="X93" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.25</v>
       </c>
       <c r="Y93" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC93" t="n">
         <v>20</v>
       </c>
-      <c r="Z93" t="n">
+      <c r="AD93" t="n">
         <v>201710</v>
       </c>
-      <c r="AA93" t="inlineStr">
+      <c r="AE93" t="inlineStr">
         <is>
           <t>Química</t>
         </is>
@@ -8452,10 +9576,10 @@
         <v>0</v>
       </c>
       <c r="U94" t="n">
-        <v>0.4402985074626866</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5597014925373134</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="W94" t="n">
         <v>0</v>
@@ -8464,12 +9588,24 @@
         <v>0</v>
       </c>
       <c r="Y94" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC94" t="n">
         <v>72</v>
       </c>
-      <c r="Z94" t="n">
+      <c r="AD94" t="n">
         <v>201720</v>
       </c>
-      <c r="AA94" t="inlineStr">
+      <c r="AE94" t="inlineStr">
         <is>
           <t>Administración</t>
         </is>
@@ -8537,10 +9673,10 @@
         <v>0</v>
       </c>
       <c r="U95" t="n">
-        <v>0.16</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="V95" t="n">
-        <v>0.84</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="W95" t="n">
         <v>0</v>
@@ -8549,12 +9685,24 @@
         <v>0</v>
       </c>
       <c r="Y95" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC95" t="n">
         <v>13</v>
       </c>
-      <c r="Z95" t="n">
+      <c r="AD95" t="n">
         <v>201720</v>
       </c>
-      <c r="AA95" t="inlineStr">
+      <c r="AE95" t="inlineStr">
         <is>
           <t>Antropología</t>
         </is>
@@ -8622,24 +9770,36 @@
         <v>0</v>
       </c>
       <c r="U96" t="n">
-        <v>0.4715447154471545</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="V96" t="n">
-        <v>0.4878048780487805</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="W96" t="n">
-        <v>0.01626016260162602</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="X96" t="n">
-        <v>0.02439024390243903</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="Y96" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC96" t="n">
         <v>65</v>
       </c>
-      <c r="Z96" t="n">
+      <c r="AD96" t="n">
         <v>201720</v>
       </c>
-      <c r="AA96" t="inlineStr">
+      <c r="AE96" t="inlineStr">
         <is>
           <t>Arquitectura</t>
         </is>
@@ -8707,10 +9867,10 @@
         <v>0</v>
       </c>
       <c r="U97" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="V97" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="W97" t="n">
         <v>0</v>
@@ -8719,12 +9879,24 @@
         <v>0</v>
       </c>
       <c r="Y97" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC97" t="n">
         <v>22</v>
       </c>
-      <c r="Z97" t="n">
+      <c r="AD97" t="n">
         <v>201720</v>
       </c>
-      <c r="AA97" t="inlineStr">
+      <c r="AE97" t="inlineStr">
         <is>
           <t>Artes</t>
         </is>
@@ -8792,24 +9964,36 @@
         <v>0</v>
       </c>
       <c r="U98" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.8125</v>
       </c>
       <c r="V98" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="W98" t="n">
         <v>0</v>
       </c>
       <c r="X98" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.0625</v>
       </c>
       <c r="Y98" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC98" t="n">
         <v>16</v>
       </c>
-      <c r="Z98" t="n">
+      <c r="AD98" t="n">
         <v>201720</v>
       </c>
-      <c r="AA98" t="inlineStr">
+      <c r="AE98" t="inlineStr">
         <is>
           <t>Biología</t>
         </is>
@@ -8877,24 +10061,36 @@
         <v>0</v>
       </c>
       <c r="U99" t="n">
-        <v>0.3670886075949367</v>
+        <v>0.4</v>
       </c>
       <c r="V99" t="n">
-        <v>0.569620253164557</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="W99" t="n">
-        <v>0.0379746835443038</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="X99" t="n">
-        <v>0.02531645569620253</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="Y99" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC99" t="n">
         <v>45</v>
       </c>
-      <c r="Z99" t="n">
+      <c r="AD99" t="n">
         <v>201720</v>
       </c>
-      <c r="AA99" t="inlineStr">
+      <c r="AE99" t="inlineStr">
         <is>
           <t>Cpol</t>
         </is>
@@ -8962,24 +10158,36 @@
         <v>0</v>
       </c>
       <c r="U100" t="n">
-        <v>0.6213592233009708</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="V100" t="n">
-        <v>0.3689320388349515</v>
+        <v>0.3508771929824561</v>
       </c>
       <c r="W100" t="n">
         <v>0</v>
       </c>
       <c r="X100" t="n">
-        <v>0.009708737864077669</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="Y100" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC100" t="n">
         <v>57</v>
       </c>
-      <c r="Z100" t="n">
+      <c r="AD100" t="n">
         <v>201720</v>
       </c>
-      <c r="AA100" t="inlineStr">
+      <c r="AE100" t="inlineStr">
         <is>
           <t>Derecho</t>
         </is>
@@ -8987,13 +10195,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="B101" t="n">
-        <v>0.72</v>
+        <v>0.7199999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07999999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="D101" t="n">
         <v>0.03999999999999999</v>
@@ -9002,19 +10210,19 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.07843137254901961</v>
+        <v>0.09803921568627452</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.05882352941176472</v>
       </c>
       <c r="H101" t="n">
-        <v>0.8627450980392156</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.01960784313725491</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
@@ -9047,24 +10255,36 @@
         <v>0</v>
       </c>
       <c r="U101" t="n">
-        <v>0.3108108108108108</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="V101" t="n">
-        <v>0.6621621621621622</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="W101" t="n">
-        <v>0.01351351351351351</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="X101" t="n">
-        <v>0.01351351351351351</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="Y101" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC101" t="n">
         <v>78</v>
       </c>
-      <c r="Z101" t="n">
+      <c r="AD101" t="n">
         <v>201720</v>
       </c>
-      <c r="AA101" t="inlineStr">
+      <c r="AE101" t="inlineStr">
         <is>
           <t>Diseño</t>
         </is>
@@ -9132,24 +10352,36 @@
         <v>0</v>
       </c>
       <c r="U102" t="n">
-        <v>0.7152777777777778</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="V102" t="n">
-        <v>0.2638888888888889</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="W102" t="n">
-        <v>0.01388888888888889</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="X102" t="n">
-        <v>0.006944444444444444</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="Y102" t="n">
+        <v>54</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC102" t="n">
         <v>76</v>
       </c>
-      <c r="Z102" t="n">
+      <c r="AD102" t="n">
         <v>201720</v>
       </c>
-      <c r="AA102" t="inlineStr">
+      <c r="AE102" t="inlineStr">
         <is>
           <t>Economía</t>
         </is>
@@ -9229,12 +10461,24 @@
         <v>0</v>
       </c>
       <c r="Y103" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC103" t="n">
         <v>6</v>
       </c>
-      <c r="Z103" t="n">
+      <c r="AD103" t="n">
         <v>201720</v>
       </c>
-      <c r="AA103" t="inlineStr">
+      <c r="AE103" t="inlineStr">
         <is>
           <t>Filosofía</t>
         </is>
@@ -9302,24 +10546,36 @@
         <v>0</v>
       </c>
       <c r="U104" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="V104" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="W104" t="n">
         <v>0</v>
       </c>
       <c r="X104" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="Y104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC104" t="n">
         <v>13</v>
       </c>
-      <c r="Z104" t="n">
+      <c r="AD104" t="n">
         <v>201720</v>
       </c>
-      <c r="AA104" t="inlineStr">
+      <c r="AE104" t="inlineStr">
         <is>
           <t>Física</t>
         </is>
@@ -9387,24 +10643,36 @@
         <v>0</v>
       </c>
       <c r="U105" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="V105" t="n">
-        <v>0.35</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="W105" t="n">
         <v>0</v>
       </c>
       <c r="X105" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="Y105" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC105" t="n">
         <v>12</v>
       </c>
-      <c r="Z105" t="n">
+      <c r="AD105" t="n">
         <v>201720</v>
       </c>
-      <c r="AA105" t="inlineStr">
+      <c r="AE105" t="inlineStr">
         <is>
           <t>Geociencias</t>
         </is>
@@ -9472,24 +10740,36 @@
         <v>0</v>
       </c>
       <c r="U106" t="n">
-        <v>0.2702702702702703</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="V106" t="n">
-        <v>0.7162162162162162</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="W106" t="n">
-        <v>0.01351351351351351</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="X106" t="n">
         <v>0</v>
       </c>
       <c r="Y106" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC106" t="n">
         <v>42</v>
       </c>
-      <c r="Z106" t="n">
+      <c r="AD106" t="n">
         <v>201720</v>
       </c>
-      <c r="AA106" t="inlineStr">
+      <c r="AE106" t="inlineStr">
         <is>
           <t>GobPolítica</t>
         </is>
@@ -9557,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="U107" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="W107" t="n">
         <v>0</v>
@@ -9569,12 +10849,24 @@
         <v>0</v>
       </c>
       <c r="Y107" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC107" t="n">
         <v>8</v>
       </c>
-      <c r="Z107" t="n">
+      <c r="AD107" t="n">
         <v>201720</v>
       </c>
-      <c r="AA107" t="inlineStr">
+      <c r="AE107" t="inlineStr">
         <is>
           <t>HistArte</t>
         </is>
@@ -9642,10 +10934,10 @@
         <v>0</v>
       </c>
       <c r="U108" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="V108" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="W108" t="n">
         <v>0</v>
@@ -9654,12 +10946,24 @@
         <v>0</v>
       </c>
       <c r="Y108" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC108" t="n">
         <v>11</v>
       </c>
-      <c r="Z108" t="n">
+      <c r="AD108" t="n">
         <v>201720</v>
       </c>
-      <c r="AA108" t="inlineStr">
+      <c r="AE108" t="inlineStr">
         <is>
           <t>Historia</t>
         </is>
@@ -9727,10 +11031,10 @@
         <v>0</v>
       </c>
       <c r="U109" t="n">
-        <v>0.1707317073170732</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="V109" t="n">
-        <v>0.8292682926829268</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="W109" t="n">
         <v>0</v>
@@ -9739,12 +11043,24 @@
         <v>0</v>
       </c>
       <c r="Y109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC109" t="n">
         <v>23</v>
       </c>
-      <c r="Z109" t="n">
+      <c r="AD109" t="n">
         <v>201720</v>
       </c>
-      <c r="AA109" t="inlineStr">
+      <c r="AE109" t="inlineStr">
         <is>
           <t>IngAmbiental</t>
         </is>
@@ -9812,24 +11128,36 @@
         <v>0</v>
       </c>
       <c r="U110" t="n">
-        <v>0.5064935064935064</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4155844155844156</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="W110" t="n">
-        <v>0.02597402597402598</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="X110" t="n">
-        <v>0.05194805194805195</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="Y110" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC110" t="n">
         <v>41</v>
       </c>
-      <c r="Z110" t="n">
+      <c r="AD110" t="n">
         <v>201720</v>
       </c>
-      <c r="AA110" t="inlineStr">
+      <c r="AE110" t="inlineStr">
         <is>
           <t>IngBiomédica</t>
         </is>
@@ -9897,24 +11225,36 @@
         <v>0</v>
       </c>
       <c r="U111" t="n">
-        <v>0.4936708860759494</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="V111" t="n">
-        <v>0.4493670886075949</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="W111" t="n">
-        <v>0.03164556962025317</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="X111" t="n">
-        <v>0.02531645569620253</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="Y111" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC111" t="n">
         <v>86</v>
       </c>
-      <c r="Z111" t="n">
+      <c r="AD111" t="n">
         <v>201720</v>
       </c>
-      <c r="AA111" t="inlineStr">
+      <c r="AE111" t="inlineStr">
         <is>
           <t>IngCivil</t>
         </is>
@@ -9982,24 +11322,36 @@
         <v>0</v>
       </c>
       <c r="U112" t="n">
-        <v>0.640625</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="V112" t="n">
-        <v>0.34375</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="W112" t="n">
-        <v>0.015625</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="X112" t="n">
         <v>0</v>
       </c>
       <c r="Y112" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC112" t="n">
         <v>34</v>
       </c>
-      <c r="Z112" t="n">
+      <c r="AD112" t="n">
         <v>201720</v>
       </c>
-      <c r="AA112" t="inlineStr">
+      <c r="AE112" t="inlineStr">
         <is>
           <t>IngElectrónica</t>
         </is>
@@ -10067,24 +11419,36 @@
         <v>0</v>
       </c>
       <c r="U113" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="V113" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="W113" t="n">
         <v>0</v>
       </c>
       <c r="X113" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="Y113" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC113" t="n">
         <v>7</v>
       </c>
-      <c r="Z113" t="n">
+      <c r="AD113" t="n">
         <v>201720</v>
       </c>
-      <c r="AA113" t="inlineStr">
+      <c r="AE113" t="inlineStr">
         <is>
           <t>IngEléctrica</t>
         </is>
@@ -10092,10 +11456,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6857142857142858</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C114" t="n">
         <v>0.1571428571428571</v>
@@ -10152,24 +11516,36 @@
         <v>0.4</v>
       </c>
       <c r="U114" t="n">
-        <v>0.5579399141630901</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="V114" t="n">
-        <v>0.407725321888412</v>
+        <v>0.4</v>
       </c>
       <c r="W114" t="n">
         <v>0</v>
       </c>
       <c r="X114" t="n">
-        <v>0.03433476394849785</v>
+        <v>0.04</v>
       </c>
       <c r="Y114" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC114" t="n">
         <v>125</v>
       </c>
-      <c r="Z114" t="n">
+      <c r="AD114" t="n">
         <v>201720</v>
       </c>
-      <c r="AA114" t="inlineStr">
+      <c r="AE114" t="inlineStr">
         <is>
           <t>IngIndustrial</t>
         </is>
@@ -10237,24 +11613,36 @@
         <v>0</v>
       </c>
       <c r="U115" t="n">
-        <v>0.4014598540145985</v>
+        <v>0.4225352112676056</v>
       </c>
       <c r="V115" t="n">
-        <v>0.5547445255474452</v>
+        <v>0.5352112676056338</v>
       </c>
       <c r="W115" t="n">
-        <v>0.0291970802919708</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="X115" t="n">
-        <v>0.0145985401459854</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="Y115" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC115" t="n">
         <v>71</v>
       </c>
-      <c r="Z115" t="n">
+      <c r="AD115" t="n">
         <v>201720</v>
       </c>
-      <c r="AA115" t="inlineStr">
+      <c r="AE115" t="inlineStr">
         <is>
           <t>IngMecánica</t>
         </is>
@@ -10325,21 +11713,33 @@
         <v>0</v>
       </c>
       <c r="V116" t="n">
-        <v>0.8924731182795699</v>
+        <v>0.8775510204081632</v>
       </c>
       <c r="W116" t="n">
-        <v>0.04301075268817205</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="X116" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="Y116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC116" t="n">
         <v>49</v>
       </c>
-      <c r="Z116" t="n">
+      <c r="AD116" t="n">
         <v>201720</v>
       </c>
-      <c r="AA116" t="inlineStr">
+      <c r="AE116" t="inlineStr">
         <is>
           <t>IngQuímica</t>
         </is>
@@ -10407,24 +11807,36 @@
         <v>0</v>
       </c>
       <c r="U117" t="n">
-        <v>0.6503496503496503</v>
+        <v>0.6455696202531646</v>
       </c>
       <c r="V117" t="n">
-        <v>0.3426573426573427</v>
+        <v>0.3417721518987342</v>
       </c>
       <c r="W117" t="n">
         <v>0</v>
       </c>
       <c r="X117" t="n">
-        <v>0.006993006993006993</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="Y117" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC117" t="n">
         <v>79</v>
       </c>
-      <c r="Z117" t="n">
+      <c r="AD117" t="n">
         <v>201720</v>
       </c>
-      <c r="AA117" t="inlineStr">
+      <c r="AE117" t="inlineStr">
         <is>
           <t>IngSistemas</t>
         </is>
@@ -10492,24 +11904,36 @@
         <v>0</v>
       </c>
       <c r="U118" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="V118" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="W118" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.0625</v>
       </c>
       <c r="X118" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="Y118" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC118" t="n">
         <v>16</v>
       </c>
-      <c r="Z118" t="n">
+      <c r="AD118" t="n">
         <v>201720</v>
       </c>
-      <c r="AA118" t="inlineStr">
+      <c r="AE118" t="inlineStr">
         <is>
           <t>Literatura</t>
         </is>
@@ -10577,24 +12001,36 @@
         <v>0</v>
       </c>
       <c r="U119" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="V119" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="W119" t="n">
         <v>0</v>
       </c>
       <c r="X119" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="Y119" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC119" t="n">
         <v>11</v>
       </c>
-      <c r="Z119" t="n">
+      <c r="AD119" t="n">
         <v>201720</v>
       </c>
-      <c r="AA119" t="inlineStr">
+      <c r="AE119" t="inlineStr">
         <is>
           <t>Matemáticas</t>
         </is>
@@ -10662,24 +12098,36 @@
         <v>0</v>
       </c>
       <c r="U120" t="n">
-        <v>0.05932203389830509</v>
+        <v>0.078125</v>
       </c>
       <c r="V120" t="n">
-        <v>0.8728813559322034</v>
+        <v>0.84375</v>
       </c>
       <c r="W120" t="n">
-        <v>0.01694915254237288</v>
+        <v>0.03125</v>
       </c>
       <c r="X120" t="n">
-        <v>0.05084745762711865</v>
+        <v>0.046875</v>
       </c>
       <c r="Y120" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>54</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC120" t="n">
         <v>64</v>
       </c>
-      <c r="Z120" t="n">
+      <c r="AD120" t="n">
         <v>201720</v>
       </c>
-      <c r="AA120" t="inlineStr">
+      <c r="AE120" t="inlineStr">
         <is>
           <t>Medicina</t>
         </is>
@@ -10747,24 +12195,36 @@
         <v>0</v>
       </c>
       <c r="U121" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="W121" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="X121" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="Y121" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC121" t="n">
         <v>13</v>
       </c>
-      <c r="Z121" t="n">
+      <c r="AD121" t="n">
         <v>201720</v>
       </c>
-      <c r="AA121" t="inlineStr">
+      <c r="AE121" t="inlineStr">
         <is>
           <t>Microbiología</t>
         </is>
@@ -10832,24 +12292,36 @@
         <v>0</v>
       </c>
       <c r="U122" t="n">
-        <v>0.4468085106382979</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="V122" t="n">
-        <v>0.4042553191489361</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="W122" t="n">
-        <v>0.02127659574468085</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="X122" t="n">
-        <v>0.1276595744680851</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="Y122" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC122" t="n">
         <v>27</v>
       </c>
-      <c r="Z122" t="n">
+      <c r="AD122" t="n">
         <v>201720</v>
       </c>
-      <c r="AA122" t="inlineStr">
+      <c r="AE122" t="inlineStr">
         <is>
           <t>Música</t>
         </is>
@@ -10917,24 +12389,36 @@
         <v>0</v>
       </c>
       <c r="U123" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.55</v>
       </c>
       <c r="V123" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.4</v>
       </c>
       <c r="W123" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="X123" t="n">
         <v>0</v>
       </c>
       <c r="Y123" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC123" t="n">
         <v>40</v>
       </c>
-      <c r="Z123" t="n">
+      <c r="AD123" t="n">
         <v>201720</v>
       </c>
-      <c r="AA123" t="inlineStr">
+      <c r="AE123" t="inlineStr">
         <is>
           <t>Psicología</t>
         </is>
@@ -11014,12 +12498,24 @@
         <v>0.125</v>
       </c>
       <c r="Y124" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC124" t="n">
         <v>8</v>
       </c>
-      <c r="Z124" t="n">
+      <c r="AD124" t="n">
         <v>201720</v>
       </c>
-      <c r="AA124" t="inlineStr">
+      <c r="AE124" t="inlineStr">
         <is>
           <t>Química</t>
         </is>
@@ -11027,13 +12523,13 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="B125" t="n">
         <v>0.2666666666666667</v>
       </c>
       <c r="C125" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.4</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -11042,10 +12538,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="F125" t="n">
-        <v>0.09615384615384616</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09615384615384616</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="H125" t="n">
         <v>0.7692307692307693</v>
@@ -11087,24 +12583,36 @@
         <v>0</v>
       </c>
       <c r="U125" t="n">
-        <v>0.1908396946564886</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="V125" t="n">
-        <v>0.7557251908396947</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="W125" t="n">
-        <v>0.007633587786259542</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="X125" t="n">
-        <v>0.04580152671755725</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="Y125" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>52</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC125" t="n">
         <v>71</v>
       </c>
-      <c r="Z125" t="n">
+      <c r="AD125" t="n">
         <v>201810</v>
       </c>
-      <c r="AA125" t="inlineStr">
+      <c r="AE125" t="inlineStr">
         <is>
           <t>Administración</t>
         </is>
@@ -11172,24 +12680,36 @@
         <v>0</v>
       </c>
       <c r="U126" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V126" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="W126" t="n">
         <v>0</v>
       </c>
       <c r="X126" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="Y126" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC126" t="n">
         <v>9</v>
       </c>
-      <c r="Z126" t="n">
+      <c r="AD126" t="n">
         <v>201810</v>
       </c>
-      <c r="AA126" t="inlineStr">
+      <c r="AE126" t="inlineStr">
         <is>
           <t>Antropología</t>
         </is>
@@ -11257,24 +12777,36 @@
         <v>0.4</v>
       </c>
       <c r="U127" t="n">
-        <v>0.3522727272727273</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="V127" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="W127" t="n">
-        <v>0.125</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="X127" t="n">
-        <v>0.1136363636363636</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Y127" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC127" t="n">
         <v>46</v>
       </c>
-      <c r="Z127" t="n">
+      <c r="AD127" t="n">
         <v>201810</v>
       </c>
-      <c r="AA127" t="inlineStr">
+      <c r="AE127" t="inlineStr">
         <is>
           <t>Arquitectura</t>
         </is>
@@ -11342,24 +12874,36 @@
         <v>0</v>
       </c>
       <c r="U128" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="V128" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="W128" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="X128" t="n">
-        <v>0.119047619047619</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="Y128" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC128" t="n">
         <v>26</v>
       </c>
-      <c r="Z128" t="n">
+      <c r="AD128" t="n">
         <v>201810</v>
       </c>
-      <c r="AA128" t="inlineStr">
+      <c r="AE128" t="inlineStr">
         <is>
           <t>Artes</t>
         </is>
@@ -11427,24 +12971,36 @@
         <v>0</v>
       </c>
       <c r="U129" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V129" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="W129" t="n">
         <v>0</v>
       </c>
       <c r="X129" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="Y129" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC129" t="n">
         <v>9</v>
       </c>
-      <c r="Z129" t="n">
+      <c r="AD129" t="n">
         <v>201810</v>
       </c>
-      <c r="AA129" t="inlineStr">
+      <c r="AE129" t="inlineStr">
         <is>
           <t>Biología</t>
         </is>
@@ -11512,24 +13068,36 @@
         <v>0</v>
       </c>
       <c r="U130" t="n">
-        <v>0.5740740740740741</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V130" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.4</v>
       </c>
       <c r="W130" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="X130" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="Y130" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC130" t="n">
         <v>30</v>
       </c>
-      <c r="Z130" t="n">
+      <c r="AD130" t="n">
         <v>201810</v>
       </c>
-      <c r="AA130" t="inlineStr">
+      <c r="AE130" t="inlineStr">
         <is>
           <t>Cpol</t>
         </is>
@@ -11543,19 +13111,19 @@
         <v>0.6875</v>
       </c>
       <c r="C131" t="n">
+        <v>0.09374999999999999</v>
+      </c>
+      <c r="D131" t="n">
         <v>0.0625</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.09374999999999999</v>
       </c>
       <c r="E131" t="n">
         <v>0.0625</v>
       </c>
       <c r="F131" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.1290322580645162</v>
       </c>
       <c r="G131" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.09677419354838711</v>
       </c>
       <c r="H131" t="n">
         <v>0.5806451612903226</v>
@@ -11567,10 +13135,10 @@
         <v>0.1935483870967742</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="L131" t="n">
-        <v>0.4285714285714286</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="M131" t="n">
         <v>0</v>
@@ -11597,24 +13165,36 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="U131" t="n">
-        <v>0.3961038961038961</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="V131" t="n">
-        <v>0.3701298701298701</v>
+        <v>0.3780487804878049</v>
       </c>
       <c r="W131" t="n">
-        <v>0.08441558441558442</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="X131" t="n">
-        <v>0.1493506493506493</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="Y131" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC131" t="n">
         <v>82</v>
       </c>
-      <c r="Z131" t="n">
+      <c r="AD131" t="n">
         <v>201810</v>
       </c>
-      <c r="AA131" t="inlineStr">
+      <c r="AE131" t="inlineStr">
         <is>
           <t>Derecho</t>
         </is>
@@ -11637,28 +13217,28 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="G132" t="n">
         <v>0.2051282051282051</v>
       </c>
       <c r="H132" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="I132" t="n">
-        <v>0.02564102564102564</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L132" t="n">
         <v>0</v>
       </c>
       <c r="M132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N132" t="n">
         <v>0</v>
@@ -11682,24 +13262,36 @@
         <v>0</v>
       </c>
       <c r="U132" t="n">
-        <v>0.3620689655172414</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="V132" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.6290322580645161</v>
       </c>
       <c r="W132" t="n">
-        <v>0.01724137931034483</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="X132" t="n">
         <v>0</v>
       </c>
       <c r="Y132" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC132" t="n">
         <v>62</v>
       </c>
-      <c r="Z132" t="n">
+      <c r="AD132" t="n">
         <v>201810</v>
       </c>
-      <c r="AA132" t="inlineStr">
+      <c r="AE132" t="inlineStr">
         <is>
           <t>Diseño</t>
         </is>
@@ -11707,16 +13299,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="B133" t="n">
         <v>0.7272727272727273</v>
       </c>
       <c r="C133" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="D133" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
@@ -11725,13 +13317,13 @@
         <v>0.09677419354838709</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="H133" t="n">
         <v>0.6451612903225806</v>
       </c>
       <c r="I133" t="n">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
         <v>0.09677419354838709</v>
@@ -11740,10 +13332,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="L133" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="N133" t="n">
         <v>0.2857142857142857</v>
@@ -11767,24 +13359,36 @@
         <v>0.5</v>
       </c>
       <c r="U133" t="n">
-        <v>0.4823529411764706</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V133" t="n">
-        <v>0.3470588235294118</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="W133" t="n">
-        <v>0.07647058823529412</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="X133" t="n">
-        <v>0.09411764705882353</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="Y133" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC133" t="n">
         <v>90</v>
       </c>
-      <c r="Z133" t="n">
+      <c r="AD133" t="n">
         <v>201810</v>
       </c>
-      <c r="AA133" t="inlineStr">
+      <c r="AE133" t="inlineStr">
         <is>
           <t>Economía</t>
         </is>
@@ -11864,12 +13468,24 @@
         <v>0</v>
       </c>
       <c r="Y134" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC134" t="n">
         <v>4</v>
       </c>
-      <c r="Z134" t="n">
+      <c r="AD134" t="n">
         <v>201810</v>
       </c>
-      <c r="AA134" t="inlineStr">
+      <c r="AE134" t="inlineStr">
         <is>
           <t>Filosofía</t>
         </is>
@@ -11937,24 +13553,36 @@
         <v>0.5</v>
       </c>
       <c r="U135" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="V135" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="W135" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="X135" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="Y135" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC135" t="n">
         <v>23</v>
       </c>
-      <c r="Z135" t="n">
+      <c r="AD135" t="n">
         <v>201810</v>
       </c>
-      <c r="AA135" t="inlineStr">
+      <c r="AE135" t="inlineStr">
         <is>
           <t>Física</t>
         </is>
@@ -12022,24 +13650,36 @@
         <v>0</v>
       </c>
       <c r="U136" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="V136" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="W136" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="X136" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="Y136" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC136" t="n">
         <v>19</v>
       </c>
-      <c r="Z136" t="n">
+      <c r="AD136" t="n">
         <v>201810</v>
       </c>
-      <c r="AA136" t="inlineStr">
+      <c r="AE136" t="inlineStr">
         <is>
           <t>Geociencias</t>
         </is>
@@ -12107,24 +13747,36 @@
         <v>0</v>
       </c>
       <c r="U137" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="V137" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.3125</v>
       </c>
       <c r="W137" t="n">
-        <v>0.05</v>
+        <v>0.0625</v>
       </c>
       <c r="X137" t="n">
         <v>0</v>
       </c>
       <c r="Y137" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC137" t="n">
         <v>32</v>
       </c>
-      <c r="Z137" t="n">
+      <c r="AD137" t="n">
         <v>201810</v>
       </c>
-      <c r="AA137" t="inlineStr">
+      <c r="AE137" t="inlineStr">
         <is>
           <t>GobPolítica</t>
         </is>
@@ -12204,12 +13856,24 @@
         <v>0.3</v>
       </c>
       <c r="Y138" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC138" t="n">
         <v>10</v>
       </c>
-      <c r="Z138" t="n">
+      <c r="AD138" t="n">
         <v>201810</v>
       </c>
-      <c r="AA138" t="inlineStr">
+      <c r="AE138" t="inlineStr">
         <is>
           <t>HistArte</t>
         </is>
@@ -12289,12 +13953,24 @@
         <v>0</v>
       </c>
       <c r="Y139" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC139" t="n">
         <v>2</v>
       </c>
-      <c r="Z139" t="n">
+      <c r="AD139" t="n">
         <v>201810</v>
       </c>
-      <c r="AA139" t="inlineStr">
+      <c r="AE139" t="inlineStr">
         <is>
           <t>Historia</t>
         </is>
@@ -12362,24 +14038,36 @@
         <v>0</v>
       </c>
       <c r="U140" t="n">
-        <v>0.3469387755102041</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="V140" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="W140" t="n">
-        <v>0.06122448979591837</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="X140" t="n">
-        <v>0.08163265306122448</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="Y140" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC140" t="n">
         <v>27</v>
       </c>
-      <c r="Z140" t="n">
+      <c r="AD140" t="n">
         <v>201810</v>
       </c>
-      <c r="AA140" t="inlineStr">
+      <c r="AE140" t="inlineStr">
         <is>
           <t>IngAmbiental</t>
         </is>
@@ -12387,13 +14075,13 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="B141" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="D141" t="n">
         <v>0.09523809523809525</v>
@@ -12405,7 +14093,7 @@
         <v>0.0625</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1875</v>
+        <v>0.15625</v>
       </c>
       <c r="H141" t="n">
         <v>0.6875</v>
@@ -12414,7 +14102,7 @@
         <v>0.03125</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03125</v>
+        <v>0.0625</v>
       </c>
       <c r="K141" t="n">
         <v>0.2</v>
@@ -12432,13 +14120,13 @@
         <v>0.2</v>
       </c>
       <c r="P141" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q141" t="n">
         <v>0.25</v>
       </c>
       <c r="R141" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S141" t="n">
         <v>0.25</v>
@@ -12447,24 +14135,36 @@
         <v>0</v>
       </c>
       <c r="U141" t="n">
-        <v>0.35</v>
+        <v>0.3387096774193548</v>
       </c>
       <c r="V141" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="W141" t="n">
-        <v>0.075</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="X141" t="n">
-        <v>0.05833333333333333</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="Y141" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC141" t="n">
         <v>62</v>
       </c>
-      <c r="Z141" t="n">
+      <c r="AD141" t="n">
         <v>201810</v>
       </c>
-      <c r="AA141" t="inlineStr">
+      <c r="AE141" t="inlineStr">
         <is>
           <t>IngBiomédica</t>
         </is>
@@ -12472,25 +14172,25 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.2727272727272728</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="B142" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C142" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="D142" t="n">
         <v>0.1818181818181818</v>
       </c>
       <c r="E142" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="F142" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="H142" t="n">
         <v>0.6060606060606061</v>
@@ -12532,24 +14232,36 @@
         <v>0.4</v>
       </c>
       <c r="U142" t="n">
-        <v>0.1484375</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="V142" t="n">
-        <v>0.46875</v>
+        <v>0.4714285714285714</v>
       </c>
       <c r="W142" t="n">
-        <v>0.1640625</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="X142" t="n">
-        <v>0.21875</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="Y142" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC142" t="n">
         <v>70</v>
       </c>
-      <c r="Z142" t="n">
+      <c r="AD142" t="n">
         <v>201810</v>
       </c>
-      <c r="AA142" t="inlineStr">
+      <c r="AE142" t="inlineStr">
         <is>
           <t>IngCivil</t>
         </is>
@@ -12617,24 +14329,36 @@
         <v>0.6</v>
       </c>
       <c r="U143" t="n">
-        <v>0.2435897435897436</v>
+        <v>0.25</v>
       </c>
       <c r="V143" t="n">
-        <v>0.3717948717948718</v>
+        <v>0.375</v>
       </c>
       <c r="W143" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.125</v>
       </c>
       <c r="X143" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.25</v>
       </c>
       <c r="Y143" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC143" t="n">
         <v>40</v>
       </c>
-      <c r="Z143" t="n">
+      <c r="AD143" t="n">
         <v>201810</v>
       </c>
-      <c r="AA143" t="inlineStr">
+      <c r="AE143" t="inlineStr">
         <is>
           <t>IngElectrónica</t>
         </is>
@@ -12702,24 +14426,36 @@
         <v>0</v>
       </c>
       <c r="U144" t="n">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="V144" t="n">
-        <v>0.375</v>
+        <v>0.3</v>
       </c>
       <c r="W144" t="n">
         <v>0</v>
       </c>
       <c r="X144" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="Y144" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC144" t="n">
         <v>10</v>
       </c>
-      <c r="Z144" t="n">
+      <c r="AD144" t="n">
         <v>201810</v>
       </c>
-      <c r="AA144" t="inlineStr">
+      <c r="AE144" t="inlineStr">
         <is>
           <t>IngEléctrica</t>
         </is>
@@ -12787,24 +14523,36 @@
         <v>0</v>
       </c>
       <c r="U145" t="n">
-        <v>0.616504854368932</v>
+        <v>0.6203703703703703</v>
       </c>
       <c r="V145" t="n">
-        <v>0.2864077669902912</v>
+        <v>0.287037037037037</v>
       </c>
       <c r="W145" t="n">
-        <v>0.07766990291262135</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="X145" t="n">
-        <v>0.01941747572815534</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="Y145" t="n">
+        <v>67</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC145" t="n">
         <v>108</v>
       </c>
-      <c r="Z145" t="n">
+      <c r="AD145" t="n">
         <v>201810</v>
       </c>
-      <c r="AA145" t="inlineStr">
+      <c r="AE145" t="inlineStr">
         <is>
           <t>IngIndustrial</t>
         </is>
@@ -12827,7 +14575,7 @@
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.09677419354838711</v>
       </c>
       <c r="G146" t="n">
         <v>0.2580645161290323</v>
@@ -12836,19 +14584,19 @@
         <v>0.5806451612903225</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="J146" t="n">
         <v>0.03225806451612903</v>
       </c>
       <c r="K146" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L146" t="n">
-        <v>0.4444444444444445</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="M146" t="n">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="N146" t="n">
         <v>0</v>
@@ -12872,24 +14620,36 @@
         <v>0</v>
       </c>
       <c r="U146" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4461538461538462</v>
+        <v>0.4428571428571428</v>
       </c>
       <c r="W146" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="X146" t="n">
-        <v>0.05384615384615385</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="Y146" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC146" t="n">
         <v>70</v>
       </c>
-      <c r="Z146" t="n">
+      <c r="AD146" t="n">
         <v>201810</v>
       </c>
-      <c r="AA146" t="inlineStr">
+      <c r="AE146" t="inlineStr">
         <is>
           <t>IngMecánica</t>
         </is>
@@ -12957,24 +14717,36 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="U147" t="n">
-        <v>0.5096153846153846</v>
+        <v>0.5</v>
       </c>
       <c r="V147" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="W147" t="n">
-        <v>0.2115384615384615</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="X147" t="n">
-        <v>0.04807692307692308</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="Y147" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC147" t="n">
         <v>54</v>
       </c>
-      <c r="Z147" t="n">
+      <c r="AD147" t="n">
         <v>201810</v>
       </c>
-      <c r="AA147" t="inlineStr">
+      <c r="AE147" t="inlineStr">
         <is>
           <t>IngQuímica</t>
         </is>
@@ -13042,24 +14814,36 @@
         <v>0</v>
       </c>
       <c r="U148" t="n">
-        <v>0.4460431654676259</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="V148" t="n">
-        <v>0.3381294964028777</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="W148" t="n">
-        <v>0.1726618705035971</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="X148" t="n">
-        <v>0.04316546762589928</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="Y148" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC148" t="n">
         <v>77</v>
       </c>
-      <c r="Z148" t="n">
+      <c r="AD148" t="n">
         <v>201810</v>
       </c>
-      <c r="AA148" t="inlineStr">
+      <c r="AE148" t="inlineStr">
         <is>
           <t>IngSistemas</t>
         </is>
@@ -13127,24 +14911,36 @@
         <v>0</v>
       </c>
       <c r="U149" t="n">
-        <v>0.3255813953488372</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5813953488372093</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="W149" t="n">
         <v>0</v>
       </c>
       <c r="X149" t="n">
-        <v>0.09302325581395349</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="Y149" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC149" t="n">
         <v>23</v>
       </c>
-      <c r="Z149" t="n">
+      <c r="AD149" t="n">
         <v>201810</v>
       </c>
-      <c r="AA149" t="inlineStr">
+      <c r="AE149" t="inlineStr">
         <is>
           <t>Literatura</t>
         </is>
@@ -13212,24 +15008,36 @@
         <v>0</v>
       </c>
       <c r="U150" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="V150" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="W150" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="X150" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="Y150" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC150" t="n">
         <v>11</v>
       </c>
-      <c r="Z150" t="n">
+      <c r="AD150" t="n">
         <v>201810</v>
       </c>
-      <c r="AA150" t="inlineStr">
+      <c r="AE150" t="inlineStr">
         <is>
           <t>Matemáticas</t>
         </is>
@@ -13297,24 +15105,36 @@
         <v>0.4</v>
       </c>
       <c r="U151" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="V151" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="W151" t="n">
-        <v>0.1746031746031746</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="X151" t="n">
-        <v>0.1587301587301587</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="Y151" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC151" t="n">
         <v>33</v>
       </c>
-      <c r="Z151" t="n">
+      <c r="AD151" t="n">
         <v>201810</v>
       </c>
-      <c r="AA151" t="inlineStr">
+      <c r="AE151" t="inlineStr">
         <is>
           <t>Medicina</t>
         </is>
@@ -13382,24 +15202,36 @@
         <v>0</v>
       </c>
       <c r="U152" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V152" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="W152" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="X152" t="n">
         <v>0</v>
       </c>
       <c r="Y152" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC152" t="n">
         <v>15</v>
       </c>
-      <c r="Z152" t="n">
+      <c r="AD152" t="n">
         <v>201810</v>
       </c>
-      <c r="AA152" t="inlineStr">
+      <c r="AE152" t="inlineStr">
         <is>
           <t>Microbiología</t>
         </is>
@@ -13467,24 +15299,36 @@
         <v>0</v>
       </c>
       <c r="U153" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="V153" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="W153" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="X153" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="Y153" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC153" t="n">
         <v>11</v>
       </c>
-      <c r="Z153" t="n">
+      <c r="AD153" t="n">
         <v>201810</v>
       </c>
-      <c r="AA153" t="inlineStr">
+      <c r="AE153" t="inlineStr">
         <is>
           <t>Música</t>
         </is>
@@ -13552,24 +15396,36 @@
         <v>0</v>
       </c>
       <c r="U154" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="V154" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.4</v>
       </c>
       <c r="W154" t="n">
         <v>0</v>
       </c>
       <c r="X154" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.15</v>
       </c>
       <c r="Y154" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC154" t="n">
         <v>20</v>
       </c>
-      <c r="Z154" t="n">
+      <c r="AD154" t="n">
         <v>201810</v>
       </c>
-      <c r="AA154" t="inlineStr">
+      <c r="AE154" t="inlineStr">
         <is>
           <t>Psicología</t>
         </is>
@@ -13649,12 +15505,24 @@
         <v>0</v>
       </c>
       <c r="Y155" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC155" t="n">
         <v>8</v>
       </c>
-      <c r="Z155" t="n">
+      <c r="AD155" t="n">
         <v>201810</v>
       </c>
-      <c r="AA155" t="inlineStr">
+      <c r="AE155" t="inlineStr">
         <is>
           <t>Química</t>
         </is>
@@ -13662,13 +15530,13 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.01470588235294118</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="B156" t="n">
-        <v>0.7941176470588236</v>
+        <v>0.7647058823529412</v>
       </c>
       <c r="C156" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1617647058823529</v>
       </c>
       <c r="D156" t="n">
         <v>0.01470588235294118</v>
@@ -13677,13 +15545,13 @@
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>0.1351351351351351</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="G156" t="n">
-        <v>0.3243243243243243</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="H156" t="n">
-        <v>0.5405405405405406</v>
+        <v>0.5945945945945945</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -13722,24 +15590,36 @@
         <v>0</v>
       </c>
       <c r="U156" t="n">
-        <v>0.6553398058252428</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="V156" t="n">
-        <v>0.3349514563106796</v>
+        <v>0.3490566037735849</v>
       </c>
       <c r="W156" t="n">
-        <v>0.009708737864077669</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="X156" t="n">
         <v>0</v>
       </c>
       <c r="Y156" t="n">
+        <v>68</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC156" t="n">
         <v>106</v>
       </c>
-      <c r="Z156" t="n">
+      <c r="AD156" t="n">
         <v>201820</v>
       </c>
-      <c r="AA156" t="inlineStr">
+      <c r="AE156" t="inlineStr">
         <is>
           <t>Administración</t>
         </is>
@@ -13807,24 +15687,36 @@
         <v>0</v>
       </c>
       <c r="U157" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="V157" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="W157" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="X157" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="Y157" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC157" t="n">
         <v>19</v>
       </c>
-      <c r="Z157" t="n">
+      <c r="AD157" t="n">
         <v>201820</v>
       </c>
-      <c r="AA157" t="inlineStr">
+      <c r="AE157" t="inlineStr">
         <is>
           <t>Antropología</t>
         </is>
@@ -13892,24 +15784,36 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="U158" t="n">
-        <v>0.4150943396226415</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="V158" t="n">
-        <v>0.5</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="W158" t="n">
-        <v>0.02830188679245283</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="X158" t="n">
-        <v>0.05660377358490566</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="Y158" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC158" t="n">
         <v>56</v>
       </c>
-      <c r="Z158" t="n">
+      <c r="AD158" t="n">
         <v>201820</v>
       </c>
-      <c r="AA158" t="inlineStr">
+      <c r="AE158" t="inlineStr">
         <is>
           <t>Arquitectura</t>
         </is>
@@ -13977,24 +15881,36 @@
         <v>0</v>
       </c>
       <c r="U159" t="n">
-        <v>0.59375</v>
+        <v>0.55</v>
       </c>
       <c r="V159" t="n">
-        <v>0.3125</v>
+        <v>0.35</v>
       </c>
       <c r="W159" t="n">
-        <v>0.09375</v>
+        <v>0.1</v>
       </c>
       <c r="X159" t="n">
         <v>0</v>
       </c>
       <c r="Y159" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC159" t="n">
         <v>20</v>
       </c>
-      <c r="Z159" t="n">
+      <c r="AD159" t="n">
         <v>201820</v>
       </c>
-      <c r="AA159" t="inlineStr">
+      <c r="AE159" t="inlineStr">
         <is>
           <t>Artes</t>
         </is>
@@ -14062,24 +15978,36 @@
         <v>0</v>
       </c>
       <c r="U160" t="n">
-        <v>0.3793103448275862</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="W160" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="X160" t="n">
-        <v>0.06896551724137931</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="Y160" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC160" t="n">
         <v>17</v>
       </c>
-      <c r="Z160" t="n">
+      <c r="AD160" t="n">
         <v>201820</v>
       </c>
-      <c r="AA160" t="inlineStr">
+      <c r="AE160" t="inlineStr">
         <is>
           <t>Biología</t>
         </is>
@@ -14147,24 +16075,36 @@
         <v>0</v>
       </c>
       <c r="U161" t="n">
-        <v>0.4153846153846154</v>
+        <v>0.4</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4461538461538462</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="W161" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="X161" t="n">
-        <v>0.01538461538461539</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="Y161" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC161" t="n">
         <v>35</v>
       </c>
-      <c r="Z161" t="n">
+      <c r="AD161" t="n">
         <v>201820</v>
       </c>
-      <c r="AA161" t="inlineStr">
+      <c r="AE161" t="inlineStr">
         <is>
           <t>Cpol</t>
         </is>
@@ -14232,24 +16172,36 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="U162" t="n">
-        <v>0.4840425531914894</v>
+        <v>0.4803921568627451</v>
       </c>
       <c r="V162" t="n">
-        <v>0.4202127659574468</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="W162" t="n">
-        <v>0.03723404255319149</v>
+        <v>0.04901960784313725</v>
       </c>
       <c r="X162" t="n">
-        <v>0.05851063829787234</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="Y162" t="n">
+        <v>49</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC162" t="n">
         <v>102</v>
       </c>
-      <c r="Z162" t="n">
+      <c r="AD162" t="n">
         <v>201820</v>
       </c>
-      <c r="AA162" t="inlineStr">
+      <c r="AE162" t="inlineStr">
         <is>
           <t>Derecho</t>
         </is>
@@ -14257,10 +16209,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.07142857142857144</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="B163" t="n">
-        <v>0.7857142857142858</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C163" t="n">
         <v>0.1071428571428572</v>
@@ -14317,24 +16269,36 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="U163" t="n">
-        <v>0.3776223776223776</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="V163" t="n">
-        <v>0.5664335664335665</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="W163" t="n">
-        <v>0.01398601398601399</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="X163" t="n">
-        <v>0.04195804195804196</v>
+        <v>0.04</v>
       </c>
       <c r="Y163" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC163" t="n">
         <v>75</v>
       </c>
-      <c r="Z163" t="n">
+      <c r="AD163" t="n">
         <v>201820</v>
       </c>
-      <c r="AA163" t="inlineStr">
+      <c r="AE163" t="inlineStr">
         <is>
           <t>Diseño</t>
         </is>
@@ -14402,24 +16366,36 @@
         <v>0</v>
       </c>
       <c r="U164" t="n">
-        <v>0.6902173913043478</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="V164" t="n">
-        <v>0.2771739130434783</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="W164" t="n">
-        <v>0.02173913043478261</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="X164" t="n">
-        <v>0.0108695652173913</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="Y164" t="n">
+        <v>66</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC164" t="n">
         <v>98</v>
       </c>
-      <c r="Z164" t="n">
+      <c r="AD164" t="n">
         <v>201820</v>
       </c>
-      <c r="AA164" t="inlineStr">
+      <c r="AE164" t="inlineStr">
         <is>
           <t>Economía</t>
         </is>
@@ -14487,10 +16463,10 @@
         <v>0</v>
       </c>
       <c r="U165" t="n">
-        <v>0.1</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="V165" t="n">
-        <v>0.9</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="W165" t="n">
         <v>0</v>
@@ -14499,12 +16475,24 @@
         <v>0</v>
       </c>
       <c r="Y165" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC165" t="n">
         <v>6</v>
       </c>
-      <c r="Z165" t="n">
+      <c r="AD165" t="n">
         <v>201820</v>
       </c>
-      <c r="AA165" t="inlineStr">
+      <c r="AE165" t="inlineStr">
         <is>
           <t>Filosofía</t>
         </is>
@@ -14572,24 +16560,36 @@
         <v>0</v>
       </c>
       <c r="U166" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="V166" t="n">
-        <v>0.4038461538461539</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="W166" t="n">
         <v>0.25</v>
       </c>
       <c r="X166" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="Y166" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC166" t="n">
         <v>28</v>
       </c>
-      <c r="Z166" t="n">
+      <c r="AD166" t="n">
         <v>201820</v>
       </c>
-      <c r="AA166" t="inlineStr">
+      <c r="AE166" t="inlineStr">
         <is>
           <t>Física</t>
         </is>
@@ -14657,24 +16657,36 @@
         <v>0</v>
       </c>
       <c r="U167" t="n">
-        <v>0.2258064516129032</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="V167" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="W167" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="X167" t="n">
-        <v>0.09677419354838709</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="Y167" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC167" t="n">
         <v>17</v>
       </c>
-      <c r="Z167" t="n">
+      <c r="AD167" t="n">
         <v>201820</v>
       </c>
-      <c r="AA167" t="inlineStr">
+      <c r="AE167" t="inlineStr">
         <is>
           <t>Geociencias</t>
         </is>
@@ -14742,24 +16754,36 @@
         <v>0</v>
       </c>
       <c r="U168" t="n">
-        <v>0.7761194029850746</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="V168" t="n">
-        <v>0.1492537313432836</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="W168" t="n">
-        <v>0.02985074626865672</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="X168" t="n">
-        <v>0.04477611940298507</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="Y168" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC168" t="n">
         <v>37</v>
       </c>
-      <c r="Z168" t="n">
+      <c r="AD168" t="n">
         <v>201820</v>
       </c>
-      <c r="AA168" t="inlineStr">
+      <c r="AE168" t="inlineStr">
         <is>
           <t>GobPolítica</t>
         </is>
@@ -14827,24 +16851,36 @@
         <v>0</v>
       </c>
       <c r="U169" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.25</v>
       </c>
       <c r="V169" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.625</v>
       </c>
       <c r="W169" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.125</v>
       </c>
       <c r="X169" t="n">
         <v>0</v>
       </c>
       <c r="Y169" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC169" t="n">
         <v>8</v>
       </c>
-      <c r="Z169" t="n">
+      <c r="AD169" t="n">
         <v>201820</v>
       </c>
-      <c r="AA169" t="inlineStr">
+      <c r="AE169" t="inlineStr">
         <is>
           <t>HistArte</t>
         </is>
@@ -14912,24 +16948,36 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="U170" t="n">
-        <v>0.2325581395348837</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6279069767441861</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="W170" t="n">
         <v>0</v>
       </c>
       <c r="X170" t="n">
-        <v>0.1395348837209302</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="Y170" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC170" t="n">
         <v>23</v>
       </c>
-      <c r="Z170" t="n">
+      <c r="AD170" t="n">
         <v>201820</v>
       </c>
-      <c r="AA170" t="inlineStr">
+      <c r="AE170" t="inlineStr">
         <is>
           <t>IngAmbiental</t>
         </is>
@@ -14997,24 +17045,36 @@
         <v>0.5</v>
       </c>
       <c r="U171" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="V171" t="n">
-        <v>0.3553719008264463</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="W171" t="n">
-        <v>0.03305785123966942</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="X171" t="n">
-        <v>0.06611570247933884</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="Y171" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC171" t="n">
         <v>63</v>
       </c>
-      <c r="Z171" t="n">
+      <c r="AD171" t="n">
         <v>201820</v>
       </c>
-      <c r="AA171" t="inlineStr">
+      <c r="AE171" t="inlineStr">
         <is>
           <t>IngBiomédica</t>
         </is>
@@ -15082,24 +17142,36 @@
         <v>0</v>
       </c>
       <c r="U172" t="n">
-        <v>0.8487394957983193</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="V172" t="n">
-        <v>0.02521008403361345</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="W172" t="n">
-        <v>0.1260504201680672</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="X172" t="n">
         <v>0</v>
       </c>
       <c r="Y172" t="n">
+        <v>53</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC172" t="n">
         <v>65</v>
       </c>
-      <c r="Z172" t="n">
+      <c r="AD172" t="n">
         <v>201820</v>
       </c>
-      <c r="AA172" t="inlineStr">
+      <c r="AE172" t="inlineStr">
         <is>
           <t>IngCivil</t>
         </is>
@@ -15167,24 +17239,36 @@
         <v>0</v>
       </c>
       <c r="U173" t="n">
-        <v>0.293103448275862</v>
+        <v>0.3125</v>
       </c>
       <c r="V173" t="n">
-        <v>0.5689655172413793</v>
+        <v>0.5625</v>
       </c>
       <c r="W173" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.03125</v>
       </c>
       <c r="X173" t="n">
-        <v>0.103448275862069</v>
+        <v>0.09375</v>
       </c>
       <c r="Y173" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC173" t="n">
         <v>32</v>
       </c>
-      <c r="Z173" t="n">
+      <c r="AD173" t="n">
         <v>201820</v>
       </c>
-      <c r="AA173" t="inlineStr">
+      <c r="AE173" t="inlineStr">
         <is>
           <t>IngElectrónica</t>
         </is>
@@ -15252,24 +17336,36 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="U174" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="V174" t="n">
-        <v>0.631578947368421</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="W174" t="n">
         <v>0</v>
       </c>
       <c r="X174" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="Y174" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC174" t="n">
         <v>11</v>
       </c>
-      <c r="Z174" t="n">
+      <c r="AD174" t="n">
         <v>201820</v>
       </c>
-      <c r="AA174" t="inlineStr">
+      <c r="AE174" t="inlineStr">
         <is>
           <t>IngEléctrica</t>
         </is>
@@ -15277,13 +17373,13 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.1145833333333333</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="B175" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="C175" t="n">
-        <v>0.2291666666666667</v>
+        <v>0.2604166666666667</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -15292,13 +17388,13 @@
         <v>0.01041666666666667</v>
       </c>
       <c r="F175" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1911764705882353</v>
       </c>
       <c r="G175" t="n">
-        <v>0.3235294117647059</v>
+        <v>0.3676470588235294</v>
       </c>
       <c r="H175" t="n">
-        <v>0.5</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -15337,24 +17433,36 @@
         <v>0</v>
       </c>
       <c r="U175" t="n">
-        <v>0.5895765472312704</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="V175" t="n">
-        <v>0.4039087947882736</v>
+        <v>0.4121212121212121</v>
       </c>
       <c r="W175" t="n">
         <v>0</v>
       </c>
       <c r="X175" t="n">
-        <v>0.006514657980456026</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="Y175" t="n">
+        <v>96</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>68</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC175" t="n">
         <v>165</v>
       </c>
-      <c r="Z175" t="n">
+      <c r="AD175" t="n">
         <v>201820</v>
       </c>
-      <c r="AA175" t="inlineStr">
+      <c r="AE175" t="inlineStr">
         <is>
           <t>IngIndustrial</t>
         </is>
@@ -15362,13 +17470,13 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.05405405405405405</v>
+        <v>0.08108108108108107</v>
       </c>
       <c r="B176" t="n">
         <v>0.6486486486486486</v>
       </c>
       <c r="C176" t="n">
-        <v>0.2432432432432432</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="D176" t="n">
         <v>0.05405405405405405</v>
@@ -15377,10 +17485,10 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.1379310344827586</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="G176" t="n">
-        <v>0.3103448275862069</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="H176" t="n">
         <v>0.4827586206896552</v>
@@ -15422,24 +17530,36 @@
         <v>0</v>
       </c>
       <c r="U176" t="n">
-        <v>0.5255474452554745</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="V176" t="n">
-        <v>0.3941605839416059</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="W176" t="n">
-        <v>0.04379562043795621</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="X176" t="n">
-        <v>0.0364963503649635</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="Y176" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC176" t="n">
         <v>73</v>
       </c>
-      <c r="Z176" t="n">
+      <c r="AD176" t="n">
         <v>201820</v>
       </c>
-      <c r="AA176" t="inlineStr">
+      <c r="AE176" t="inlineStr">
         <is>
           <t>IngMecánica</t>
         </is>
@@ -15507,24 +17627,36 @@
         <v>0.5</v>
       </c>
       <c r="U177" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="V177" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="W177" t="n">
         <v>0</v>
       </c>
       <c r="X177" t="n">
-        <v>0.2</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="Y177" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC177" t="n">
         <v>39</v>
       </c>
-      <c r="Z177" t="n">
+      <c r="AD177" t="n">
         <v>201820</v>
       </c>
-      <c r="AA177" t="inlineStr">
+      <c r="AE177" t="inlineStr">
         <is>
           <t>IngQuímica</t>
         </is>
@@ -15592,24 +17724,36 @@
         <v>0</v>
       </c>
       <c r="U178" t="n">
-        <v>0.5040650406504065</v>
+        <v>0.5074626865671642</v>
       </c>
       <c r="V178" t="n">
-        <v>0.3577235772357724</v>
+        <v>0.3582089552238806</v>
       </c>
       <c r="W178" t="n">
-        <v>0.0975609756097561</v>
+        <v>0.08955223880597014</v>
       </c>
       <c r="X178" t="n">
-        <v>0.04065040650406504</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="Y178" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC178" t="n">
         <v>67</v>
       </c>
-      <c r="Z178" t="n">
+      <c r="AD178" t="n">
         <v>201820</v>
       </c>
-      <c r="AA178" t="inlineStr">
+      <c r="AE178" t="inlineStr">
         <is>
           <t>IngSistemas</t>
         </is>
@@ -15677,24 +17821,36 @@
         <v>0</v>
       </c>
       <c r="U179" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="V179" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="W179" t="n">
         <v>0</v>
       </c>
       <c r="X179" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="Y179" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC179" t="n">
         <v>14</v>
       </c>
-      <c r="Z179" t="n">
+      <c r="AD179" t="n">
         <v>201820</v>
       </c>
-      <c r="AA179" t="inlineStr">
+      <c r="AE179" t="inlineStr">
         <is>
           <t>Literatura</t>
         </is>
@@ -15762,10 +17918,10 @@
         <v>0</v>
       </c>
       <c r="U180" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="V180" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="W180" t="n">
         <v>0</v>
@@ -15774,12 +17930,24 @@
         <v>0</v>
       </c>
       <c r="Y180" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC180" t="n">
         <v>11</v>
       </c>
-      <c r="Z180" t="n">
+      <c r="AD180" t="n">
         <v>201820</v>
       </c>
-      <c r="AA180" t="inlineStr">
+      <c r="AE180" t="inlineStr">
         <is>
           <t>Matemáticas</t>
         </is>
@@ -15802,7 +17970,7 @@
         <v>0.02857142857142857</v>
       </c>
       <c r="F181" t="n">
-        <v>0.1</v>
+        <v>0.05000000000000001</v>
       </c>
       <c r="G181" t="n">
         <v>0.55</v>
@@ -15814,10 +17982,10 @@
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>0.05000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="K181" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="L181" t="n">
         <v>0.375</v>
@@ -15826,10 +17994,10 @@
         <v>0</v>
       </c>
       <c r="N181" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O181" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="P181" t="n">
         <v>0</v>
@@ -15838,33 +18006,45 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="R181" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="S181" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="T181" t="n">
         <v>0</v>
       </c>
       <c r="U181" t="n">
-        <v>0.532258064516129</v>
+        <v>0.5303030303030303</v>
       </c>
       <c r="V181" t="n">
-        <v>0.3064516129032258</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="W181" t="n">
-        <v>0.1129032258064516</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="X181" t="n">
-        <v>0.04838709677419355</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="Y181" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC181" t="n">
         <v>66</v>
       </c>
-      <c r="Z181" t="n">
+      <c r="AD181" t="n">
         <v>201820</v>
       </c>
-      <c r="AA181" t="inlineStr">
+      <c r="AE181" t="inlineStr">
         <is>
           <t>Medicina</t>
         </is>
@@ -15932,24 +18112,36 @@
         <v>0</v>
       </c>
       <c r="U182" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="V182" t="n">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="X182" t="n">
         <v>0</v>
       </c>
       <c r="Y182" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC182" t="n">
         <v>9</v>
       </c>
-      <c r="Z182" t="n">
+      <c r="AD182" t="n">
         <v>201820</v>
       </c>
-      <c r="AA182" t="inlineStr">
+      <c r="AE182" t="inlineStr">
         <is>
           <t>Microbiología</t>
         </is>
@@ -16017,24 +18209,36 @@
         <v>0</v>
       </c>
       <c r="U183" t="n">
-        <v>0.391304347826087</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="V183" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="W183" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="X183" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="Y183" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC183" t="n">
         <v>13</v>
       </c>
-      <c r="Z183" t="n">
+      <c r="AD183" t="n">
         <v>201820</v>
       </c>
-      <c r="AA183" t="inlineStr">
+      <c r="AE183" t="inlineStr">
         <is>
           <t>Música</t>
         </is>
@@ -16102,24 +18306,36 @@
         <v>0</v>
       </c>
       <c r="U184" t="n">
-        <v>0.25</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="V184" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="X184" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="Y184" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC184" t="n">
         <v>38</v>
       </c>
-      <c r="Z184" t="n">
+      <c r="AD184" t="n">
         <v>201820</v>
       </c>
-      <c r="AA184" t="inlineStr">
+      <c r="AE184" t="inlineStr">
         <is>
           <t>Psicología</t>
         </is>
@@ -16187,10 +18403,10 @@
         <v>0</v>
       </c>
       <c r="U185" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V185" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="W185" t="n">
         <v>0</v>
@@ -16199,12 +18415,24 @@
         <v>0</v>
       </c>
       <c r="Y185" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC185" t="n">
         <v>3</v>
       </c>
-      <c r="Z185" t="n">
+      <c r="AD185" t="n">
         <v>201820</v>
       </c>
-      <c r="AA185" t="inlineStr">
+      <c r="AE185" t="inlineStr">
         <is>
           <t>Química</t>
         </is>
